--- a/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/Documentos/1.6 Plantilla_Reemplazo_de_lamparas_de_sector_publico.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/Documentos/1.6 Plantilla_Reemplazo_de_lamparas_de_sector_publico.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Versiòn plantillas\Versión borrado de meses y fechas SOLO SE DEJO AÑOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92B7F6F-2396-4AF2-B0C6-29C8FCA85C79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75EB409-AAB9-42DD-8D95-F3707E2913D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{429C6A72-8D08-4088-A1CE-833765DF0018}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Año</t>
   </si>
@@ -121,15 +121,6 @@
     <t>Año en que se compraron lámparas. Seleccione de la lista desplegable.</t>
   </si>
   <si>
-    <t>Potencia de lámpara BAU</t>
-  </si>
-  <si>
-    <t>Potencia de lámpara Iniciativa</t>
-  </si>
-  <si>
-    <t>Tipo iniciativa</t>
-  </si>
-  <si>
     <t>Potencia de la lámpara antes de la implementación. Inserte su dato.</t>
   </si>
   <si>
@@ -139,13 +130,25 @@
     <t>Potencia de la lámpara posterior a la implementación. Inserte su dato.</t>
   </si>
   <si>
-    <t>Tipo de lámpara Iniciativa. Seleccione el desplegable.</t>
-  </si>
-  <si>
     <t>Número de unidades de este tipo o clase. Inserte su dato.</t>
   </si>
   <si>
     <t>Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos.</t>
+  </si>
+  <si>
+    <t>Tipo de lámpara acción. Seleccione el desplegable.</t>
+  </si>
+  <si>
+    <t>Potencia de Lámpara BAU (W)</t>
+  </si>
+  <si>
+    <t>Tipo de Lámpara BAU</t>
+  </si>
+  <si>
+    <t>Potencia de Lámpara Acción (W)</t>
+  </si>
+  <si>
+    <t>Tipo de Lámpara Acción</t>
   </si>
 </sst>
 </file>
@@ -639,7 +642,7 @@
   <dimension ref="A1:H312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>1</v>
@@ -682,7 +685,7 @@
     </row>
     <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -697,21 +700,21 @@
         <v>25</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5670,7 +5673,7 @@
       <c r="H312" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+bAB0GnKLvpquXAp2O7npewW4rbDLK8xY4SHzh66aNUlusMdcrdR5ELkxhVbQWZTAPeJbbrSALbNVC7dwwXaMg==" saltValue="YyX3pGOG4xN6DX48xXgM9w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1bkvobGdtvZtZMFlG7YG+temPWNT3pCuTn67gdrJtujIiPV0M4ZDBGaNpcPR0KtQQRPNddGimLOS6KxEQawyIw==" saltValue="KkfIHVNnqZ5lXvTs8ZYf+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A2:H2"/>
   </mergeCells>

--- a/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/Documentos/1.6 Plantilla_Reemplazo_de_lamparas_de_sector_publico.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/Documentos/1.6 Plantilla_Reemplazo_de_lamparas_de_sector_publico.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Versión borrado de meses y fechas SOLO SE DEJO AÑOS _V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75EB409-AAB9-42DD-8D95-F3707E2913D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559AF6BE-5EC3-4F63-AED2-7941733F570E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{429C6A72-8D08-4088-A1CE-833765DF0018}"/>
   </bookViews>
@@ -205,7 +205,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,8 +230,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -254,11 +260,158 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -303,10 +456,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -315,12 +464,71 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -642,7 +850,7 @@
   <dimension ref="A1:H312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,77 +892,77 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="24" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="17" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="7"/>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="22">
         <v>2017</v>
       </c>
-      <c r="B4" s="16">
-        <v>40</v>
-      </c>
-      <c r="C4" s="17">
+      <c r="B4" s="26">
+        <v>40.729999999999997</v>
+      </c>
+      <c r="C4" s="23">
         <f t="shared" ref="C4:C67" si="0">VLOOKUP(D4,Tabla_TIPBAU,2,)</f>
         <v>1</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="16">
-        <v>11</v>
-      </c>
-      <c r="F4" s="17">
+      <c r="E4" s="29">
+        <v>11.13</v>
+      </c>
+      <c r="F4" s="16">
         <f t="shared" ref="F4:F67" si="1">VLOOKUP(G4,Tabla_TIPINI,2,)</f>
         <v>1</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <v>25000</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="15" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="15" t="e">
+      <c r="B5" s="27"/>
+      <c r="C5" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D5" s="30"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
@@ -762,15 +970,15 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="15" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="15" t="e">
+      <c r="A6" s="18"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
@@ -779,13 +987,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="8"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D7" s="14"/>
-      <c r="E7" s="8"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -795,13 +1003,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="8"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D8" s="14"/>
-      <c r="E8" s="8"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -811,13 +1019,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="8"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D9" s="14"/>
-      <c r="E9" s="8"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -827,13 +1035,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="8"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D10" s="14"/>
-      <c r="E10" s="8"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -843,13 +1051,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="8"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D11" s="14"/>
-      <c r="E11" s="8"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -859,13 +1067,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="8"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D12" s="14"/>
-      <c r="E12" s="8"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -875,13 +1083,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="8"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D13" s="14"/>
-      <c r="E13" s="8"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -891,13 +1099,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="8"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D14" s="14"/>
-      <c r="E14" s="8"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -907,13 +1115,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="8"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D15" s="14"/>
-      <c r="E15" s="8"/>
+      <c r="E15" s="31"/>
       <c r="F15" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -923,13 +1131,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="8"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D16" s="14"/>
-      <c r="E16" s="8"/>
+      <c r="E16" s="31"/>
       <c r="F16" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -939,13 +1147,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="8"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D17" s="14"/>
-      <c r="E17" s="8"/>
+      <c r="E17" s="31"/>
       <c r="F17" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -955,12 +1163,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="8"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D18" s="14"/>
+      <c r="E18" s="31"/>
       <c r="F18" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -970,13 +1179,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
-      <c r="B19" s="8"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D19" s="14"/>
-      <c r="E19" s="8"/>
+      <c r="E19" s="31"/>
       <c r="F19" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -986,13 +1195,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="8"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D20" s="14"/>
-      <c r="E20" s="8"/>
+      <c r="E20" s="31"/>
       <c r="F20" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1002,13 +1211,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="8"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D21" s="14"/>
-      <c r="E21" s="8"/>
+      <c r="E21" s="31"/>
       <c r="F21" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1018,13 +1227,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="B22" s="8"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D22" s="14"/>
-      <c r="E22" s="8"/>
+      <c r="E22" s="31"/>
       <c r="F22" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1034,13 +1243,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="B23" s="8"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D23" s="14"/>
-      <c r="E23" s="8"/>
+      <c r="E23" s="31"/>
       <c r="F23" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1050,13 +1259,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="8"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D24" s="14"/>
-      <c r="E24" s="8"/>
+      <c r="E24" s="31"/>
       <c r="F24" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1066,13 +1275,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
-      <c r="B25" s="8"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D25" s="14"/>
-      <c r="E25" s="8"/>
+      <c r="E25" s="31"/>
       <c r="F25" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1082,13 +1291,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="8"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D26" s="14"/>
-      <c r="E26" s="8"/>
+      <c r="E26" s="31"/>
       <c r="F26" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1098,13 +1307,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="B27" s="8"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D27" s="14"/>
-      <c r="E27" s="8"/>
+      <c r="E27" s="31"/>
       <c r="F27" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1114,13 +1323,13 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
-      <c r="B28" s="8"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D28" s="14"/>
-      <c r="E28" s="8"/>
+      <c r="E28" s="31"/>
       <c r="F28" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1130,13 +1339,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="8"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D29" s="14"/>
-      <c r="E29" s="8"/>
+      <c r="E29" s="31"/>
       <c r="F29" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1146,13 +1355,13 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-      <c r="B30" s="8"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D30" s="14"/>
-      <c r="E30" s="8"/>
+      <c r="E30" s="31"/>
       <c r="F30" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1162,13 +1371,13 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
-      <c r="B31" s="8"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D31" s="14"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="31"/>
       <c r="F31" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1178,13 +1387,13 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-      <c r="B32" s="8"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D32" s="14"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="31"/>
       <c r="F32" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1194,13 +1403,13 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
-      <c r="B33" s="8"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D33" s="14"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="31"/>
       <c r="F33" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1210,13 +1419,13 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
-      <c r="B34" s="8"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D34" s="14"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="31"/>
       <c r="F34" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1226,13 +1435,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
-      <c r="B35" s="8"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D35" s="14"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="31"/>
       <c r="F35" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1242,13 +1451,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
-      <c r="B36" s="8"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D36" s="14"/>
-      <c r="E36" s="8"/>
+      <c r="E36" s="31"/>
       <c r="F36" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1258,13 +1467,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
-      <c r="B37" s="8"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D37" s="14"/>
-      <c r="E37" s="8"/>
+      <c r="E37" s="31"/>
       <c r="F37" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1274,13 +1483,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
-      <c r="B38" s="8"/>
+      <c r="B38" s="21"/>
       <c r="C38" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D38" s="14"/>
-      <c r="E38" s="8"/>
+      <c r="E38" s="31"/>
       <c r="F38" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1290,13 +1499,13 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
-      <c r="B39" s="8"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D39" s="14"/>
-      <c r="E39" s="8"/>
+      <c r="E39" s="31"/>
       <c r="F39" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1306,13 +1515,13 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
-      <c r="B40" s="8"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D40" s="14"/>
-      <c r="E40" s="8"/>
+      <c r="E40" s="31"/>
       <c r="F40" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1322,13 +1531,13 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
-      <c r="B41" s="8"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D41" s="14"/>
-      <c r="E41" s="8"/>
+      <c r="E41" s="31"/>
       <c r="F41" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1338,13 +1547,13 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="8"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D42" s="14"/>
-      <c r="E42" s="8"/>
+      <c r="E42" s="31"/>
       <c r="F42" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1354,13 +1563,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
-      <c r="B43" s="8"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D43" s="14"/>
-      <c r="E43" s="8"/>
+      <c r="E43" s="31"/>
       <c r="F43" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1370,13 +1579,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
-      <c r="B44" s="8"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D44" s="14"/>
-      <c r="E44" s="8"/>
+      <c r="E44" s="31"/>
       <c r="F44" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1386,13 +1595,13 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
-      <c r="B45" s="8"/>
+      <c r="B45" s="21"/>
       <c r="C45" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D45" s="14"/>
-      <c r="E45" s="8"/>
+      <c r="E45" s="31"/>
       <c r="F45" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1402,13 +1611,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
-      <c r="B46" s="8"/>
+      <c r="B46" s="21"/>
       <c r="C46" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D46" s="14"/>
-      <c r="E46" s="8"/>
+      <c r="E46" s="31"/>
       <c r="F46" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1418,13 +1627,13 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
-      <c r="B47" s="8"/>
+      <c r="B47" s="21"/>
       <c r="C47" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D47" s="14"/>
-      <c r="E47" s="8"/>
+      <c r="E47" s="31"/>
       <c r="F47" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1434,13 +1643,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
-      <c r="B48" s="8"/>
+      <c r="B48" s="21"/>
       <c r="C48" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D48" s="14"/>
-      <c r="E48" s="8"/>
+      <c r="E48" s="31"/>
       <c r="F48" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1450,13 +1659,13 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
-      <c r="B49" s="8"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D49" s="14"/>
-      <c r="E49" s="8"/>
+      <c r="E49" s="31"/>
       <c r="F49" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1466,13 +1675,13 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
-      <c r="B50" s="8"/>
+      <c r="B50" s="21"/>
       <c r="C50" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D50" s="14"/>
-      <c r="E50" s="8"/>
+      <c r="E50" s="31"/>
       <c r="F50" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1482,13 +1691,13 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
-      <c r="B51" s="8"/>
+      <c r="B51" s="21"/>
       <c r="C51" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D51" s="14"/>
-      <c r="E51" s="8"/>
+      <c r="E51" s="31"/>
       <c r="F51" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1498,13 +1707,13 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
-      <c r="B52" s="8"/>
+      <c r="B52" s="21"/>
       <c r="C52" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D52" s="14"/>
-      <c r="E52" s="8"/>
+      <c r="E52" s="31"/>
       <c r="F52" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1514,13 +1723,13 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
-      <c r="B53" s="8"/>
+      <c r="B53" s="21"/>
       <c r="C53" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D53" s="14"/>
-      <c r="E53" s="8"/>
+      <c r="E53" s="31"/>
       <c r="F53" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1530,13 +1739,13 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
-      <c r="B54" s="8"/>
+      <c r="B54" s="21"/>
       <c r="C54" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D54" s="14"/>
-      <c r="E54" s="8"/>
+      <c r="E54" s="31"/>
       <c r="F54" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1546,13 +1755,13 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
-      <c r="B55" s="8"/>
+      <c r="B55" s="21"/>
       <c r="C55" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D55" s="14"/>
-      <c r="E55" s="8"/>
+      <c r="E55" s="31"/>
       <c r="F55" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1562,13 +1771,13 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
-      <c r="B56" s="8"/>
+      <c r="B56" s="21"/>
       <c r="C56" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D56" s="14"/>
-      <c r="E56" s="8"/>
+      <c r="E56" s="31"/>
       <c r="F56" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1578,13 +1787,13 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
-      <c r="B57" s="8"/>
+      <c r="B57" s="21"/>
       <c r="C57" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D57" s="14"/>
-      <c r="E57" s="8"/>
+      <c r="E57" s="31"/>
       <c r="F57" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1594,13 +1803,13 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
-      <c r="B58" s="8"/>
+      <c r="B58" s="21"/>
       <c r="C58" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D58" s="14"/>
-      <c r="E58" s="8"/>
+      <c r="E58" s="31"/>
       <c r="F58" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1610,13 +1819,13 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
-      <c r="B59" s="8"/>
+      <c r="B59" s="21"/>
       <c r="C59" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D59" s="14"/>
-      <c r="E59" s="8"/>
+      <c r="E59" s="31"/>
       <c r="F59" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1626,13 +1835,13 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
-      <c r="B60" s="8"/>
+      <c r="B60" s="21"/>
       <c r="C60" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D60" s="14"/>
-      <c r="E60" s="8"/>
+      <c r="E60" s="31"/>
       <c r="F60" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1642,13 +1851,13 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
-      <c r="B61" s="8"/>
+      <c r="B61" s="21"/>
       <c r="C61" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D61" s="14"/>
-      <c r="E61" s="8"/>
+      <c r="E61" s="31"/>
       <c r="F61" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1658,13 +1867,13 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
-      <c r="B62" s="8"/>
+      <c r="B62" s="21"/>
       <c r="C62" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D62" s="14"/>
-      <c r="E62" s="8"/>
+      <c r="E62" s="31"/>
       <c r="F62" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1674,13 +1883,13 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
-      <c r="B63" s="8"/>
+      <c r="B63" s="21"/>
       <c r="C63" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D63" s="14"/>
-      <c r="E63" s="8"/>
+      <c r="E63" s="31"/>
       <c r="F63" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1690,13 +1899,13 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
-      <c r="B64" s="8"/>
+      <c r="B64" s="21"/>
       <c r="C64" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D64" s="14"/>
-      <c r="E64" s="8"/>
+      <c r="E64" s="31"/>
       <c r="F64" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1706,13 +1915,13 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
-      <c r="B65" s="8"/>
+      <c r="B65" s="21"/>
       <c r="C65" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D65" s="14"/>
-      <c r="E65" s="8"/>
+      <c r="E65" s="31"/>
       <c r="F65" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1722,13 +1931,13 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
-      <c r="B66" s="8"/>
+      <c r="B66" s="21"/>
       <c r="C66" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D66" s="14"/>
-      <c r="E66" s="8"/>
+      <c r="E66" s="31"/>
       <c r="F66" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1738,13 +1947,13 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
-      <c r="B67" s="8"/>
+      <c r="B67" s="21"/>
       <c r="C67" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D67" s="14"/>
-      <c r="E67" s="8"/>
+      <c r="E67" s="31"/>
       <c r="F67" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1754,13 +1963,13 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
-      <c r="B68" s="8"/>
+      <c r="B68" s="21"/>
       <c r="C68" s="13" t="e">
         <f t="shared" ref="C68:C131" si="2">VLOOKUP(D68,Tabla_TIPBAU,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="D68" s="14"/>
-      <c r="E68" s="8"/>
+      <c r="E68" s="31"/>
       <c r="F68" s="13" t="e">
         <f t="shared" ref="F68:F131" si="3">VLOOKUP(G68,Tabla_TIPINI,2,)</f>
         <v>#N/A</v>
@@ -1770,13 +1979,13 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
-      <c r="B69" s="8"/>
+      <c r="B69" s="21"/>
       <c r="C69" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D69" s="14"/>
-      <c r="E69" s="8"/>
+      <c r="E69" s="31"/>
       <c r="F69" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1786,13 +1995,13 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
-      <c r="B70" s="8"/>
+      <c r="B70" s="21"/>
       <c r="C70" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D70" s="14"/>
-      <c r="E70" s="8"/>
+      <c r="E70" s="31"/>
       <c r="F70" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1802,13 +2011,13 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
-      <c r="B71" s="8"/>
+      <c r="B71" s="21"/>
       <c r="C71" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D71" s="14"/>
-      <c r="E71" s="8"/>
+      <c r="E71" s="31"/>
       <c r="F71" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1818,13 +2027,13 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
-      <c r="B72" s="8"/>
+      <c r="B72" s="21"/>
       <c r="C72" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D72" s="14"/>
-      <c r="E72" s="8"/>
+      <c r="E72" s="31"/>
       <c r="F72" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1834,13 +2043,13 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
-      <c r="B73" s="8"/>
+      <c r="B73" s="21"/>
       <c r="C73" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D73" s="14"/>
-      <c r="E73" s="8"/>
+      <c r="E73" s="31"/>
       <c r="F73" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1850,13 +2059,13 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
-      <c r="B74" s="8"/>
+      <c r="B74" s="21"/>
       <c r="C74" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D74" s="14"/>
-      <c r="E74" s="8"/>
+      <c r="E74" s="31"/>
       <c r="F74" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1866,13 +2075,13 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
-      <c r="B75" s="8"/>
+      <c r="B75" s="21"/>
       <c r="C75" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D75" s="14"/>
-      <c r="E75" s="8"/>
+      <c r="E75" s="31"/>
       <c r="F75" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1882,13 +2091,13 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
-      <c r="B76" s="8"/>
+      <c r="B76" s="21"/>
       <c r="C76" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D76" s="14"/>
-      <c r="E76" s="8"/>
+      <c r="E76" s="31"/>
       <c r="F76" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1898,13 +2107,13 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
-      <c r="B77" s="8"/>
+      <c r="B77" s="21"/>
       <c r="C77" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D77" s="14"/>
-      <c r="E77" s="8"/>
+      <c r="E77" s="31"/>
       <c r="F77" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1914,13 +2123,13 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
-      <c r="B78" s="8"/>
+      <c r="B78" s="21"/>
       <c r="C78" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D78" s="14"/>
-      <c r="E78" s="8"/>
+      <c r="E78" s="31"/>
       <c r="F78" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1930,13 +2139,13 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
-      <c r="B79" s="8"/>
+      <c r="B79" s="21"/>
       <c r="C79" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D79" s="14"/>
-      <c r="E79" s="8"/>
+      <c r="E79" s="31"/>
       <c r="F79" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1946,13 +2155,13 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
-      <c r="B80" s="8"/>
+      <c r="B80" s="21"/>
       <c r="C80" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D80" s="14"/>
-      <c r="E80" s="8"/>
+      <c r="E80" s="31"/>
       <c r="F80" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1962,13 +2171,13 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
-      <c r="B81" s="8"/>
+      <c r="B81" s="21"/>
       <c r="C81" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D81" s="14"/>
-      <c r="E81" s="8"/>
+      <c r="E81" s="31"/>
       <c r="F81" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1978,13 +2187,13 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
-      <c r="B82" s="8"/>
+      <c r="B82" s="21"/>
       <c r="C82" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D82" s="14"/>
-      <c r="E82" s="8"/>
+      <c r="E82" s="31"/>
       <c r="F82" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1994,13 +2203,13 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
-      <c r="B83" s="8"/>
+      <c r="B83" s="21"/>
       <c r="C83" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D83" s="14"/>
-      <c r="E83" s="8"/>
+      <c r="E83" s="31"/>
       <c r="F83" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2010,13 +2219,13 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
-      <c r="B84" s="8"/>
+      <c r="B84" s="21"/>
       <c r="C84" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D84" s="14"/>
-      <c r="E84" s="8"/>
+      <c r="E84" s="31"/>
       <c r="F84" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2026,13 +2235,13 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
-      <c r="B85" s="8"/>
+      <c r="B85" s="21"/>
       <c r="C85" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D85" s="14"/>
-      <c r="E85" s="8"/>
+      <c r="E85" s="31"/>
       <c r="F85" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2042,13 +2251,13 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
-      <c r="B86" s="8"/>
+      <c r="B86" s="21"/>
       <c r="C86" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D86" s="14"/>
-      <c r="E86" s="8"/>
+      <c r="E86" s="31"/>
       <c r="F86" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2058,13 +2267,13 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
-      <c r="B87" s="8"/>
+      <c r="B87" s="21"/>
       <c r="C87" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D87" s="14"/>
-      <c r="E87" s="8"/>
+      <c r="E87" s="31"/>
       <c r="F87" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2074,13 +2283,13 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
-      <c r="B88" s="8"/>
+      <c r="B88" s="21"/>
       <c r="C88" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D88" s="14"/>
-      <c r="E88" s="8"/>
+      <c r="E88" s="31"/>
       <c r="F88" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2090,13 +2299,13 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
-      <c r="B89" s="8"/>
+      <c r="B89" s="21"/>
       <c r="C89" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D89" s="14"/>
-      <c r="E89" s="8"/>
+      <c r="E89" s="31"/>
       <c r="F89" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2106,13 +2315,13 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
-      <c r="B90" s="8"/>
+      <c r="B90" s="21"/>
       <c r="C90" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D90" s="14"/>
-      <c r="E90" s="8"/>
+      <c r="E90" s="31"/>
       <c r="F90" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2122,13 +2331,13 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
-      <c r="B91" s="8"/>
+      <c r="B91" s="21"/>
       <c r="C91" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D91" s="14"/>
-      <c r="E91" s="8"/>
+      <c r="E91" s="31"/>
       <c r="F91" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2138,13 +2347,13 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
-      <c r="B92" s="8"/>
+      <c r="B92" s="21"/>
       <c r="C92" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D92" s="14"/>
-      <c r="E92" s="8"/>
+      <c r="E92" s="31"/>
       <c r="F92" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2154,13 +2363,13 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
-      <c r="B93" s="8"/>
+      <c r="B93" s="21"/>
       <c r="C93" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D93" s="14"/>
-      <c r="E93" s="8"/>
+      <c r="E93" s="31"/>
       <c r="F93" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2170,13 +2379,13 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
-      <c r="B94" s="8"/>
+      <c r="B94" s="21"/>
       <c r="C94" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D94" s="14"/>
-      <c r="E94" s="8"/>
+      <c r="E94" s="31"/>
       <c r="F94" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2186,13 +2395,13 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
-      <c r="B95" s="8"/>
+      <c r="B95" s="21"/>
       <c r="C95" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D95" s="14"/>
-      <c r="E95" s="8"/>
+      <c r="E95" s="31"/>
       <c r="F95" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2202,13 +2411,13 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
-      <c r="B96" s="8"/>
+      <c r="B96" s="21"/>
       <c r="C96" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D96" s="14"/>
-      <c r="E96" s="8"/>
+      <c r="E96" s="31"/>
       <c r="F96" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2218,13 +2427,13 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
-      <c r="B97" s="8"/>
+      <c r="B97" s="21"/>
       <c r="C97" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D97" s="14"/>
-      <c r="E97" s="8"/>
+      <c r="E97" s="31"/>
       <c r="F97" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2234,13 +2443,13 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
-      <c r="B98" s="8"/>
+      <c r="B98" s="21"/>
       <c r="C98" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D98" s="14"/>
-      <c r="E98" s="8"/>
+      <c r="E98" s="31"/>
       <c r="F98" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2250,13 +2459,13 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
-      <c r="B99" s="8"/>
+      <c r="B99" s="21"/>
       <c r="C99" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D99" s="14"/>
-      <c r="E99" s="8"/>
+      <c r="E99" s="31"/>
       <c r="F99" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2266,13 +2475,13 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
-      <c r="B100" s="8"/>
+      <c r="B100" s="21"/>
       <c r="C100" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D100" s="14"/>
-      <c r="E100" s="8"/>
+      <c r="E100" s="31"/>
       <c r="F100" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2282,13 +2491,13 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
-      <c r="B101" s="8"/>
+      <c r="B101" s="21"/>
       <c r="C101" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D101" s="14"/>
-      <c r="E101" s="8"/>
+      <c r="E101" s="31"/>
       <c r="F101" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2298,13 +2507,13 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
-      <c r="B102" s="8"/>
+      <c r="B102" s="21"/>
       <c r="C102" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D102" s="14"/>
-      <c r="E102" s="8"/>
+      <c r="E102" s="31"/>
       <c r="F102" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2314,13 +2523,13 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
-      <c r="B103" s="8"/>
+      <c r="B103" s="21"/>
       <c r="C103" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D103" s="14"/>
-      <c r="E103" s="8"/>
+      <c r="E103" s="31"/>
       <c r="F103" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2330,13 +2539,13 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
-      <c r="B104" s="8"/>
+      <c r="B104" s="21"/>
       <c r="C104" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D104" s="14"/>
-      <c r="E104" s="8"/>
+      <c r="E104" s="31"/>
       <c r="F104" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2346,13 +2555,13 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
-      <c r="B105" s="8"/>
+      <c r="B105" s="21"/>
       <c r="C105" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D105" s="14"/>
-      <c r="E105" s="8"/>
+      <c r="E105" s="31"/>
       <c r="F105" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2362,13 +2571,13 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
-      <c r="B106" s="8"/>
+      <c r="B106" s="21"/>
       <c r="C106" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D106" s="14"/>
-      <c r="E106" s="8"/>
+      <c r="E106" s="31"/>
       <c r="F106" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2378,13 +2587,13 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
-      <c r="B107" s="8"/>
+      <c r="B107" s="21"/>
       <c r="C107" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D107" s="14"/>
-      <c r="E107" s="8"/>
+      <c r="E107" s="31"/>
       <c r="F107" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2394,13 +2603,13 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
-      <c r="B108" s="8"/>
+      <c r="B108" s="21"/>
       <c r="C108" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D108" s="14"/>
-      <c r="E108" s="8"/>
+      <c r="E108" s="31"/>
       <c r="F108" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2410,13 +2619,13 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
-      <c r="B109" s="8"/>
+      <c r="B109" s="21"/>
       <c r="C109" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D109" s="14"/>
-      <c r="E109" s="8"/>
+      <c r="E109" s="31"/>
       <c r="F109" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2426,13 +2635,13 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
-      <c r="B110" s="8"/>
+      <c r="B110" s="21"/>
       <c r="C110" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D110" s="14"/>
-      <c r="E110" s="8"/>
+      <c r="E110" s="31"/>
       <c r="F110" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2442,13 +2651,13 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
-      <c r="B111" s="8"/>
+      <c r="B111" s="21"/>
       <c r="C111" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D111" s="14"/>
-      <c r="E111" s="8"/>
+      <c r="E111" s="31"/>
       <c r="F111" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2458,13 +2667,13 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
-      <c r="B112" s="8"/>
+      <c r="B112" s="21"/>
       <c r="C112" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D112" s="14"/>
-      <c r="E112" s="8"/>
+      <c r="E112" s="31"/>
       <c r="F112" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2474,13 +2683,13 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
-      <c r="B113" s="8"/>
+      <c r="B113" s="21"/>
       <c r="C113" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D113" s="14"/>
-      <c r="E113" s="8"/>
+      <c r="E113" s="31"/>
       <c r="F113" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2490,13 +2699,13 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
-      <c r="B114" s="8"/>
+      <c r="B114" s="21"/>
       <c r="C114" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D114" s="14"/>
-      <c r="E114" s="8"/>
+      <c r="E114" s="31"/>
       <c r="F114" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2506,13 +2715,13 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
-      <c r="B115" s="8"/>
+      <c r="B115" s="21"/>
       <c r="C115" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D115" s="14"/>
-      <c r="E115" s="8"/>
+      <c r="E115" s="31"/>
       <c r="F115" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2522,13 +2731,13 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
-      <c r="B116" s="8"/>
+      <c r="B116" s="21"/>
       <c r="C116" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D116" s="14"/>
-      <c r="E116" s="8"/>
+      <c r="E116" s="31"/>
       <c r="F116" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2538,13 +2747,13 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
-      <c r="B117" s="8"/>
+      <c r="B117" s="21"/>
       <c r="C117" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D117" s="14"/>
-      <c r="E117" s="8"/>
+      <c r="E117" s="31"/>
       <c r="F117" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2554,13 +2763,13 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
-      <c r="B118" s="8"/>
+      <c r="B118" s="21"/>
       <c r="C118" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D118" s="14"/>
-      <c r="E118" s="8"/>
+      <c r="E118" s="31"/>
       <c r="F118" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2570,13 +2779,13 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
-      <c r="B119" s="8"/>
+      <c r="B119" s="21"/>
       <c r="C119" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D119" s="14"/>
-      <c r="E119" s="8"/>
+      <c r="E119" s="31"/>
       <c r="F119" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2586,13 +2795,13 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
-      <c r="B120" s="8"/>
+      <c r="B120" s="21"/>
       <c r="C120" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D120" s="14"/>
-      <c r="E120" s="8"/>
+      <c r="E120" s="31"/>
       <c r="F120" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2602,13 +2811,13 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
-      <c r="B121" s="8"/>
+      <c r="B121" s="21"/>
       <c r="C121" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D121" s="14"/>
-      <c r="E121" s="8"/>
+      <c r="E121" s="31"/>
       <c r="F121" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2618,13 +2827,13 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
-      <c r="B122" s="8"/>
+      <c r="B122" s="21"/>
       <c r="C122" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D122" s="14"/>
-      <c r="E122" s="8"/>
+      <c r="E122" s="31"/>
       <c r="F122" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2634,13 +2843,13 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
-      <c r="B123" s="8"/>
+      <c r="B123" s="21"/>
       <c r="C123" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D123" s="14"/>
-      <c r="E123" s="8"/>
+      <c r="E123" s="31"/>
       <c r="F123" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2650,13 +2859,13 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>
-      <c r="B124" s="8"/>
+      <c r="B124" s="21"/>
       <c r="C124" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D124" s="14"/>
-      <c r="E124" s="8"/>
+      <c r="E124" s="31"/>
       <c r="F124" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2666,13 +2875,13 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
-      <c r="B125" s="8"/>
+      <c r="B125" s="21"/>
       <c r="C125" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D125" s="14"/>
-      <c r="E125" s="8"/>
+      <c r="E125" s="31"/>
       <c r="F125" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2682,13 +2891,13 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
-      <c r="B126" s="8"/>
+      <c r="B126" s="21"/>
       <c r="C126" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D126" s="14"/>
-      <c r="E126" s="8"/>
+      <c r="E126" s="31"/>
       <c r="F126" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2698,13 +2907,13 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="5"/>
-      <c r="B127" s="8"/>
+      <c r="B127" s="21"/>
       <c r="C127" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D127" s="14"/>
-      <c r="E127" s="8"/>
+      <c r="E127" s="31"/>
       <c r="F127" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2714,13 +2923,13 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="5"/>
-      <c r="B128" s="8"/>
+      <c r="B128" s="21"/>
       <c r="C128" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D128" s="14"/>
-      <c r="E128" s="8"/>
+      <c r="E128" s="31"/>
       <c r="F128" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2730,13 +2939,13 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
-      <c r="B129" s="8"/>
+      <c r="B129" s="21"/>
       <c r="C129" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D129" s="14"/>
-      <c r="E129" s="8"/>
+      <c r="E129" s="31"/>
       <c r="F129" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2746,13 +2955,13 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
-      <c r="B130" s="8"/>
+      <c r="B130" s="21"/>
       <c r="C130" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D130" s="14"/>
-      <c r="E130" s="8"/>
+      <c r="E130" s="31"/>
       <c r="F130" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2762,13 +2971,13 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
-      <c r="B131" s="8"/>
+      <c r="B131" s="21"/>
       <c r="C131" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D131" s="14"/>
-      <c r="E131" s="8"/>
+      <c r="E131" s="31"/>
       <c r="F131" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2778,13 +2987,13 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="5"/>
-      <c r="B132" s="8"/>
+      <c r="B132" s="21"/>
       <c r="C132" s="13" t="e">
         <f t="shared" ref="C132:C195" si="4">VLOOKUP(D132,Tabla_TIPBAU,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="D132" s="14"/>
-      <c r="E132" s="8"/>
+      <c r="E132" s="31"/>
       <c r="F132" s="13" t="e">
         <f t="shared" ref="F132:F195" si="5">VLOOKUP(G132,Tabla_TIPINI,2,)</f>
         <v>#N/A</v>
@@ -2794,13 +3003,13 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="5"/>
-      <c r="B133" s="8"/>
+      <c r="B133" s="21"/>
       <c r="C133" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D133" s="14"/>
-      <c r="E133" s="8"/>
+      <c r="E133" s="31"/>
       <c r="F133" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -2810,13 +3019,13 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="5"/>
-      <c r="B134" s="8"/>
+      <c r="B134" s="21"/>
       <c r="C134" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D134" s="14"/>
-      <c r="E134" s="8"/>
+      <c r="E134" s="31"/>
       <c r="F134" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -2826,13 +3035,13 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="5"/>
-      <c r="B135" s="8"/>
+      <c r="B135" s="21"/>
       <c r="C135" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D135" s="14"/>
-      <c r="E135" s="8"/>
+      <c r="E135" s="31"/>
       <c r="F135" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -2842,13 +3051,13 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="5"/>
-      <c r="B136" s="8"/>
+      <c r="B136" s="21"/>
       <c r="C136" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D136" s="14"/>
-      <c r="E136" s="8"/>
+      <c r="E136" s="31"/>
       <c r="F136" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -2858,13 +3067,13 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="5"/>
-      <c r="B137" s="8"/>
+      <c r="B137" s="21"/>
       <c r="C137" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D137" s="14"/>
-      <c r="E137" s="8"/>
+      <c r="E137" s="31"/>
       <c r="F137" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -2874,13 +3083,13 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="5"/>
-      <c r="B138" s="8"/>
+      <c r="B138" s="21"/>
       <c r="C138" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D138" s="14"/>
-      <c r="E138" s="8"/>
+      <c r="E138" s="31"/>
       <c r="F138" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -2890,13 +3099,13 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="5"/>
-      <c r="B139" s="8"/>
+      <c r="B139" s="21"/>
       <c r="C139" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D139" s="14"/>
-      <c r="E139" s="8"/>
+      <c r="E139" s="31"/>
       <c r="F139" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -2906,13 +3115,13 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="5"/>
-      <c r="B140" s="8"/>
+      <c r="B140" s="21"/>
       <c r="C140" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D140" s="14"/>
-      <c r="E140" s="8"/>
+      <c r="E140" s="31"/>
       <c r="F140" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -2922,13 +3131,13 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="5"/>
-      <c r="B141" s="8"/>
+      <c r="B141" s="21"/>
       <c r="C141" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D141" s="14"/>
-      <c r="E141" s="8"/>
+      <c r="E141" s="31"/>
       <c r="F141" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -2938,13 +3147,13 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="5"/>
-      <c r="B142" s="8"/>
+      <c r="B142" s="21"/>
       <c r="C142" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D142" s="14"/>
-      <c r="E142" s="8"/>
+      <c r="E142" s="31"/>
       <c r="F142" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -2954,13 +3163,13 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="5"/>
-      <c r="B143" s="8"/>
+      <c r="B143" s="21"/>
       <c r="C143" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D143" s="14"/>
-      <c r="E143" s="8"/>
+      <c r="E143" s="31"/>
       <c r="F143" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -2970,13 +3179,13 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="5"/>
-      <c r="B144" s="8"/>
+      <c r="B144" s="21"/>
       <c r="C144" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D144" s="14"/>
-      <c r="E144" s="8"/>
+      <c r="E144" s="31"/>
       <c r="F144" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -2986,13 +3195,13 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="5"/>
-      <c r="B145" s="8"/>
+      <c r="B145" s="21"/>
       <c r="C145" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D145" s="14"/>
-      <c r="E145" s="8"/>
+      <c r="E145" s="31"/>
       <c r="F145" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3002,13 +3211,13 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="5"/>
-      <c r="B146" s="8"/>
+      <c r="B146" s="21"/>
       <c r="C146" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D146" s="14"/>
-      <c r="E146" s="8"/>
+      <c r="E146" s="31"/>
       <c r="F146" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3018,13 +3227,13 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="5"/>
-      <c r="B147" s="8"/>
+      <c r="B147" s="21"/>
       <c r="C147" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D147" s="14"/>
-      <c r="E147" s="8"/>
+      <c r="E147" s="31"/>
       <c r="F147" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3034,13 +3243,13 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="5"/>
-      <c r="B148" s="8"/>
+      <c r="B148" s="21"/>
       <c r="C148" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D148" s="14"/>
-      <c r="E148" s="8"/>
+      <c r="E148" s="31"/>
       <c r="F148" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3050,13 +3259,13 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="5"/>
-      <c r="B149" s="8"/>
+      <c r="B149" s="21"/>
       <c r="C149" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D149" s="14"/>
-      <c r="E149" s="8"/>
+      <c r="E149" s="31"/>
       <c r="F149" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3066,13 +3275,13 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="5"/>
-      <c r="B150" s="8"/>
+      <c r="B150" s="21"/>
       <c r="C150" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D150" s="14"/>
-      <c r="E150" s="8"/>
+      <c r="E150" s="31"/>
       <c r="F150" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3082,13 +3291,13 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="5"/>
-      <c r="B151" s="8"/>
+      <c r="B151" s="21"/>
       <c r="C151" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D151" s="14"/>
-      <c r="E151" s="8"/>
+      <c r="E151" s="31"/>
       <c r="F151" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3098,13 +3307,13 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="5"/>
-      <c r="B152" s="8"/>
+      <c r="B152" s="21"/>
       <c r="C152" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D152" s="14"/>
-      <c r="E152" s="8"/>
+      <c r="E152" s="31"/>
       <c r="F152" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3114,13 +3323,13 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="5"/>
-      <c r="B153" s="8"/>
+      <c r="B153" s="21"/>
       <c r="C153" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D153" s="14"/>
-      <c r="E153" s="8"/>
+      <c r="E153" s="31"/>
       <c r="F153" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3130,13 +3339,13 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="5"/>
-      <c r="B154" s="8"/>
+      <c r="B154" s="21"/>
       <c r="C154" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D154" s="14"/>
-      <c r="E154" s="8"/>
+      <c r="E154" s="31"/>
       <c r="F154" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3146,13 +3355,13 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="5"/>
-      <c r="B155" s="8"/>
+      <c r="B155" s="21"/>
       <c r="C155" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D155" s="14"/>
-      <c r="E155" s="8"/>
+      <c r="E155" s="31"/>
       <c r="F155" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3162,13 +3371,13 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="5"/>
-      <c r="B156" s="8"/>
+      <c r="B156" s="21"/>
       <c r="C156" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D156" s="14"/>
-      <c r="E156" s="8"/>
+      <c r="E156" s="31"/>
       <c r="F156" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3178,13 +3387,13 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="5"/>
-      <c r="B157" s="8"/>
+      <c r="B157" s="21"/>
       <c r="C157" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D157" s="14"/>
-      <c r="E157" s="8"/>
+      <c r="E157" s="31"/>
       <c r="F157" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3194,13 +3403,13 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="5"/>
-      <c r="B158" s="8"/>
+      <c r="B158" s="21"/>
       <c r="C158" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D158" s="14"/>
-      <c r="E158" s="8"/>
+      <c r="E158" s="31"/>
       <c r="F158" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3210,13 +3419,13 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="5"/>
-      <c r="B159" s="8"/>
+      <c r="B159" s="21"/>
       <c r="C159" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D159" s="14"/>
-      <c r="E159" s="8"/>
+      <c r="E159" s="31"/>
       <c r="F159" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3226,13 +3435,13 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="5"/>
-      <c r="B160" s="8"/>
+      <c r="B160" s="21"/>
       <c r="C160" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D160" s="14"/>
-      <c r="E160" s="8"/>
+      <c r="E160" s="31"/>
       <c r="F160" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3242,13 +3451,13 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="5"/>
-      <c r="B161" s="8"/>
+      <c r="B161" s="21"/>
       <c r="C161" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D161" s="14"/>
-      <c r="E161" s="8"/>
+      <c r="E161" s="31"/>
       <c r="F161" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3258,13 +3467,13 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="5"/>
-      <c r="B162" s="8"/>
+      <c r="B162" s="21"/>
       <c r="C162" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D162" s="14"/>
-      <c r="E162" s="8"/>
+      <c r="E162" s="31"/>
       <c r="F162" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3274,13 +3483,13 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="5"/>
-      <c r="B163" s="8"/>
+      <c r="B163" s="21"/>
       <c r="C163" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D163" s="14"/>
-      <c r="E163" s="8"/>
+      <c r="E163" s="31"/>
       <c r="F163" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3290,13 +3499,13 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="5"/>
-      <c r="B164" s="8"/>
+      <c r="B164" s="21"/>
       <c r="C164" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D164" s="14"/>
-      <c r="E164" s="8"/>
+      <c r="E164" s="31"/>
       <c r="F164" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3306,13 +3515,13 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="5"/>
-      <c r="B165" s="8"/>
+      <c r="B165" s="21"/>
       <c r="C165" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D165" s="14"/>
-      <c r="E165" s="8"/>
+      <c r="E165" s="31"/>
       <c r="F165" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3322,13 +3531,13 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="5"/>
-      <c r="B166" s="8"/>
+      <c r="B166" s="21"/>
       <c r="C166" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D166" s="14"/>
-      <c r="E166" s="8"/>
+      <c r="E166" s="31"/>
       <c r="F166" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3338,13 +3547,13 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="5"/>
-      <c r="B167" s="8"/>
+      <c r="B167" s="21"/>
       <c r="C167" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D167" s="14"/>
-      <c r="E167" s="8"/>
+      <c r="E167" s="31"/>
       <c r="F167" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3354,13 +3563,13 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="5"/>
-      <c r="B168" s="8"/>
+      <c r="B168" s="21"/>
       <c r="C168" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D168" s="14"/>
-      <c r="E168" s="8"/>
+      <c r="E168" s="31"/>
       <c r="F168" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3370,13 +3579,13 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="5"/>
-      <c r="B169" s="8"/>
+      <c r="B169" s="21"/>
       <c r="C169" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D169" s="14"/>
-      <c r="E169" s="8"/>
+      <c r="E169" s="31"/>
       <c r="F169" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3386,13 +3595,13 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="5"/>
-      <c r="B170" s="8"/>
+      <c r="B170" s="21"/>
       <c r="C170" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D170" s="14"/>
-      <c r="E170" s="8"/>
+      <c r="E170" s="31"/>
       <c r="F170" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3402,13 +3611,13 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="5"/>
-      <c r="B171" s="8"/>
+      <c r="B171" s="21"/>
       <c r="C171" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D171" s="14"/>
-      <c r="E171" s="8"/>
+      <c r="E171" s="31"/>
       <c r="F171" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3418,13 +3627,13 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="5"/>
-      <c r="B172" s="8"/>
+      <c r="B172" s="21"/>
       <c r="C172" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D172" s="14"/>
-      <c r="E172" s="8"/>
+      <c r="E172" s="31"/>
       <c r="F172" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3434,13 +3643,13 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="5"/>
-      <c r="B173" s="8"/>
+      <c r="B173" s="21"/>
       <c r="C173" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D173" s="14"/>
-      <c r="E173" s="8"/>
+      <c r="E173" s="31"/>
       <c r="F173" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3450,13 +3659,13 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="5"/>
-      <c r="B174" s="8"/>
+      <c r="B174" s="21"/>
       <c r="C174" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D174" s="14"/>
-      <c r="E174" s="8"/>
+      <c r="E174" s="31"/>
       <c r="F174" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3466,13 +3675,13 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="5"/>
-      <c r="B175" s="8"/>
+      <c r="B175" s="21"/>
       <c r="C175" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D175" s="14"/>
-      <c r="E175" s="8"/>
+      <c r="E175" s="31"/>
       <c r="F175" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3482,13 +3691,13 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="5"/>
-      <c r="B176" s="8"/>
+      <c r="B176" s="21"/>
       <c r="C176" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D176" s="14"/>
-      <c r="E176" s="8"/>
+      <c r="E176" s="31"/>
       <c r="F176" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3498,13 +3707,13 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="5"/>
-      <c r="B177" s="8"/>
+      <c r="B177" s="21"/>
       <c r="C177" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D177" s="14"/>
-      <c r="E177" s="8"/>
+      <c r="E177" s="31"/>
       <c r="F177" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3514,13 +3723,13 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="5"/>
-      <c r="B178" s="8"/>
+      <c r="B178" s="21"/>
       <c r="C178" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D178" s="14"/>
-      <c r="E178" s="8"/>
+      <c r="E178" s="31"/>
       <c r="F178" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3530,13 +3739,13 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="5"/>
-      <c r="B179" s="8"/>
+      <c r="B179" s="21"/>
       <c r="C179" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D179" s="14"/>
-      <c r="E179" s="8"/>
+      <c r="E179" s="31"/>
       <c r="F179" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3546,13 +3755,13 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="5"/>
-      <c r="B180" s="8"/>
+      <c r="B180" s="21"/>
       <c r="C180" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D180" s="14"/>
-      <c r="E180" s="8"/>
+      <c r="E180" s="31"/>
       <c r="F180" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3562,13 +3771,13 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="5"/>
-      <c r="B181" s="8"/>
+      <c r="B181" s="21"/>
       <c r="C181" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D181" s="14"/>
-      <c r="E181" s="8"/>
+      <c r="E181" s="31"/>
       <c r="F181" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3578,13 +3787,13 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="5"/>
-      <c r="B182" s="8"/>
+      <c r="B182" s="21"/>
       <c r="C182" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D182" s="14"/>
-      <c r="E182" s="8"/>
+      <c r="E182" s="31"/>
       <c r="F182" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3594,13 +3803,13 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="5"/>
-      <c r="B183" s="8"/>
+      <c r="B183" s="21"/>
       <c r="C183" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D183" s="14"/>
-      <c r="E183" s="8"/>
+      <c r="E183" s="31"/>
       <c r="F183" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3610,13 +3819,13 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="5"/>
-      <c r="B184" s="8"/>
+      <c r="B184" s="21"/>
       <c r="C184" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D184" s="14"/>
-      <c r="E184" s="8"/>
+      <c r="E184" s="31"/>
       <c r="F184" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3626,13 +3835,13 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="5"/>
-      <c r="B185" s="8"/>
+      <c r="B185" s="21"/>
       <c r="C185" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D185" s="14"/>
-      <c r="E185" s="8"/>
+      <c r="E185" s="31"/>
       <c r="F185" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3642,13 +3851,13 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="5"/>
-      <c r="B186" s="8"/>
+      <c r="B186" s="21"/>
       <c r="C186" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D186" s="14"/>
-      <c r="E186" s="8"/>
+      <c r="E186" s="31"/>
       <c r="F186" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3658,13 +3867,13 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="5"/>
-      <c r="B187" s="8"/>
+      <c r="B187" s="21"/>
       <c r="C187" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D187" s="14"/>
-      <c r="E187" s="8"/>
+      <c r="E187" s="31"/>
       <c r="F187" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3674,13 +3883,13 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="5"/>
-      <c r="B188" s="8"/>
+      <c r="B188" s="21"/>
       <c r="C188" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D188" s="14"/>
-      <c r="E188" s="8"/>
+      <c r="E188" s="31"/>
       <c r="F188" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3690,13 +3899,13 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="5"/>
-      <c r="B189" s="8"/>
+      <c r="B189" s="21"/>
       <c r="C189" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D189" s="14"/>
-      <c r="E189" s="8"/>
+      <c r="E189" s="31"/>
       <c r="F189" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3706,13 +3915,13 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="5"/>
-      <c r="B190" s="8"/>
+      <c r="B190" s="21"/>
       <c r="C190" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D190" s="14"/>
-      <c r="E190" s="8"/>
+      <c r="E190" s="31"/>
       <c r="F190" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3722,13 +3931,13 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="5"/>
-      <c r="B191" s="8"/>
+      <c r="B191" s="21"/>
       <c r="C191" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D191" s="14"/>
-      <c r="E191" s="8"/>
+      <c r="E191" s="31"/>
       <c r="F191" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3738,13 +3947,13 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="5"/>
-      <c r="B192" s="8"/>
+      <c r="B192" s="21"/>
       <c r="C192" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D192" s="14"/>
-      <c r="E192" s="8"/>
+      <c r="E192" s="31"/>
       <c r="F192" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3754,13 +3963,13 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="5"/>
-      <c r="B193" s="8"/>
+      <c r="B193" s="21"/>
       <c r="C193" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D193" s="14"/>
-      <c r="E193" s="8"/>
+      <c r="E193" s="31"/>
       <c r="F193" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3770,13 +3979,13 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="5"/>
-      <c r="B194" s="8"/>
+      <c r="B194" s="21"/>
       <c r="C194" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D194" s="14"/>
-      <c r="E194" s="8"/>
+      <c r="E194" s="31"/>
       <c r="F194" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3786,13 +3995,13 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="5"/>
-      <c r="B195" s="8"/>
+      <c r="B195" s="21"/>
       <c r="C195" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D195" s="14"/>
-      <c r="E195" s="8"/>
+      <c r="E195" s="31"/>
       <c r="F195" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3802,13 +4011,13 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="5"/>
-      <c r="B196" s="8"/>
+      <c r="B196" s="21"/>
       <c r="C196" s="13" t="e">
         <f t="shared" ref="C196:C259" si="6">VLOOKUP(D196,Tabla_TIPBAU,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="D196" s="14"/>
-      <c r="E196" s="8"/>
+      <c r="E196" s="31"/>
       <c r="F196" s="13" t="e">
         <f t="shared" ref="F196:F259" si="7">VLOOKUP(G196,Tabla_TIPINI,2,)</f>
         <v>#N/A</v>
@@ -3818,13 +4027,13 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="5"/>
-      <c r="B197" s="8"/>
+      <c r="B197" s="21"/>
       <c r="C197" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D197" s="14"/>
-      <c r="E197" s="8"/>
+      <c r="E197" s="31"/>
       <c r="F197" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3834,13 +4043,13 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="5"/>
-      <c r="B198" s="8"/>
+      <c r="B198" s="21"/>
       <c r="C198" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D198" s="14"/>
-      <c r="E198" s="8"/>
+      <c r="E198" s="31"/>
       <c r="F198" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3850,13 +4059,13 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="5"/>
-      <c r="B199" s="8"/>
+      <c r="B199" s="21"/>
       <c r="C199" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D199" s="14"/>
-      <c r="E199" s="8"/>
+      <c r="E199" s="31"/>
       <c r="F199" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3866,13 +4075,13 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="5"/>
-      <c r="B200" s="8"/>
+      <c r="B200" s="21"/>
       <c r="C200" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D200" s="14"/>
-      <c r="E200" s="8"/>
+      <c r="E200" s="31"/>
       <c r="F200" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3882,13 +4091,13 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="5"/>
-      <c r="B201" s="8"/>
+      <c r="B201" s="21"/>
       <c r="C201" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D201" s="14"/>
-      <c r="E201" s="8"/>
+      <c r="E201" s="31"/>
       <c r="F201" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3898,13 +4107,13 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="5"/>
-      <c r="B202" s="8"/>
+      <c r="B202" s="21"/>
       <c r="C202" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D202" s="14"/>
-      <c r="E202" s="8"/>
+      <c r="E202" s="31"/>
       <c r="F202" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3914,13 +4123,13 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="5"/>
-      <c r="B203" s="8"/>
+      <c r="B203" s="21"/>
       <c r="C203" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D203" s="14"/>
-      <c r="E203" s="8"/>
+      <c r="E203" s="31"/>
       <c r="F203" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3930,13 +4139,13 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="5"/>
-      <c r="B204" s="8"/>
+      <c r="B204" s="21"/>
       <c r="C204" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D204" s="14"/>
-      <c r="E204" s="8"/>
+      <c r="E204" s="31"/>
       <c r="F204" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3946,13 +4155,13 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="5"/>
-      <c r="B205" s="8"/>
+      <c r="B205" s="21"/>
       <c r="C205" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D205" s="14"/>
-      <c r="E205" s="8"/>
+      <c r="E205" s="31"/>
       <c r="F205" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3962,13 +4171,13 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="5"/>
-      <c r="B206" s="8"/>
+      <c r="B206" s="21"/>
       <c r="C206" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D206" s="14"/>
-      <c r="E206" s="8"/>
+      <c r="E206" s="31"/>
       <c r="F206" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3978,13 +4187,13 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="5"/>
-      <c r="B207" s="8"/>
+      <c r="B207" s="21"/>
       <c r="C207" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D207" s="14"/>
-      <c r="E207" s="8"/>
+      <c r="E207" s="31"/>
       <c r="F207" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3994,13 +4203,13 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="5"/>
-      <c r="B208" s="8"/>
+      <c r="B208" s="21"/>
       <c r="C208" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D208" s="14"/>
-      <c r="E208" s="8"/>
+      <c r="E208" s="31"/>
       <c r="F208" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4010,13 +4219,13 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="5"/>
-      <c r="B209" s="8"/>
+      <c r="B209" s="21"/>
       <c r="C209" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D209" s="14"/>
-      <c r="E209" s="8"/>
+      <c r="E209" s="31"/>
       <c r="F209" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4026,13 +4235,13 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="5"/>
-      <c r="B210" s="8"/>
+      <c r="B210" s="21"/>
       <c r="C210" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D210" s="14"/>
-      <c r="E210" s="8"/>
+      <c r="E210" s="31"/>
       <c r="F210" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4042,13 +4251,13 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="5"/>
-      <c r="B211" s="8"/>
+      <c r="B211" s="21"/>
       <c r="C211" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D211" s="14"/>
-      <c r="E211" s="8"/>
+      <c r="E211" s="31"/>
       <c r="F211" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4058,13 +4267,13 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="5"/>
-      <c r="B212" s="8"/>
+      <c r="B212" s="21"/>
       <c r="C212" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D212" s="14"/>
-      <c r="E212" s="8"/>
+      <c r="E212" s="31"/>
       <c r="F212" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4074,13 +4283,13 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="5"/>
-      <c r="B213" s="8"/>
+      <c r="B213" s="21"/>
       <c r="C213" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D213" s="14"/>
-      <c r="E213" s="8"/>
+      <c r="E213" s="31"/>
       <c r="F213" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4090,13 +4299,13 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="5"/>
-      <c r="B214" s="8"/>
+      <c r="B214" s="21"/>
       <c r="C214" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D214" s="14"/>
-      <c r="E214" s="8"/>
+      <c r="E214" s="31"/>
       <c r="F214" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4106,13 +4315,13 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="5"/>
-      <c r="B215" s="8"/>
+      <c r="B215" s="21"/>
       <c r="C215" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D215" s="14"/>
-      <c r="E215" s="8"/>
+      <c r="E215" s="31"/>
       <c r="F215" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4122,13 +4331,13 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="5"/>
-      <c r="B216" s="8"/>
+      <c r="B216" s="21"/>
       <c r="C216" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D216" s="14"/>
-      <c r="E216" s="8"/>
+      <c r="E216" s="31"/>
       <c r="F216" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4138,13 +4347,13 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="5"/>
-      <c r="B217" s="8"/>
+      <c r="B217" s="21"/>
       <c r="C217" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D217" s="14"/>
-      <c r="E217" s="8"/>
+      <c r="E217" s="31"/>
       <c r="F217" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4154,13 +4363,13 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="5"/>
-      <c r="B218" s="8"/>
+      <c r="B218" s="21"/>
       <c r="C218" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D218" s="14"/>
-      <c r="E218" s="8"/>
+      <c r="E218" s="31"/>
       <c r="F218" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4170,13 +4379,13 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="5"/>
-      <c r="B219" s="8"/>
+      <c r="B219" s="21"/>
       <c r="C219" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D219" s="14"/>
-      <c r="E219" s="8"/>
+      <c r="E219" s="31"/>
       <c r="F219" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4186,13 +4395,13 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="5"/>
-      <c r="B220" s="8"/>
+      <c r="B220" s="21"/>
       <c r="C220" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D220" s="14"/>
-      <c r="E220" s="8"/>
+      <c r="E220" s="31"/>
       <c r="F220" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4202,13 +4411,13 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="5"/>
-      <c r="B221" s="8"/>
+      <c r="B221" s="21"/>
       <c r="C221" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D221" s="14"/>
-      <c r="E221" s="8"/>
+      <c r="E221" s="31"/>
       <c r="F221" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4218,13 +4427,13 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="5"/>
-      <c r="B222" s="8"/>
+      <c r="B222" s="21"/>
       <c r="C222" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D222" s="14"/>
-      <c r="E222" s="8"/>
+      <c r="E222" s="31"/>
       <c r="F222" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4234,13 +4443,13 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="5"/>
-      <c r="B223" s="8"/>
+      <c r="B223" s="21"/>
       <c r="C223" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D223" s="14"/>
-      <c r="E223" s="8"/>
+      <c r="E223" s="31"/>
       <c r="F223" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4250,13 +4459,13 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="5"/>
-      <c r="B224" s="8"/>
+      <c r="B224" s="21"/>
       <c r="C224" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D224" s="14"/>
-      <c r="E224" s="8"/>
+      <c r="E224" s="31"/>
       <c r="F224" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4266,13 +4475,13 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="5"/>
-      <c r="B225" s="8"/>
+      <c r="B225" s="21"/>
       <c r="C225" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D225" s="14"/>
-      <c r="E225" s="8"/>
+      <c r="E225" s="31"/>
       <c r="F225" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4282,13 +4491,13 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="5"/>
-      <c r="B226" s="8"/>
+      <c r="B226" s="21"/>
       <c r="C226" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D226" s="14"/>
-      <c r="E226" s="8"/>
+      <c r="E226" s="31"/>
       <c r="F226" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4298,13 +4507,13 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="5"/>
-      <c r="B227" s="8"/>
+      <c r="B227" s="21"/>
       <c r="C227" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D227" s="14"/>
-      <c r="E227" s="8"/>
+      <c r="E227" s="31"/>
       <c r="F227" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4314,13 +4523,13 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="5"/>
-      <c r="B228" s="8"/>
+      <c r="B228" s="21"/>
       <c r="C228" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D228" s="14"/>
-      <c r="E228" s="8"/>
+      <c r="E228" s="31"/>
       <c r="F228" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4330,13 +4539,13 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="5"/>
-      <c r="B229" s="8"/>
+      <c r="B229" s="21"/>
       <c r="C229" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D229" s="14"/>
-      <c r="E229" s="8"/>
+      <c r="E229" s="31"/>
       <c r="F229" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4346,13 +4555,13 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="5"/>
-      <c r="B230" s="8"/>
+      <c r="B230" s="21"/>
       <c r="C230" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D230" s="14"/>
-      <c r="E230" s="8"/>
+      <c r="E230" s="31"/>
       <c r="F230" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4362,13 +4571,13 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="5"/>
-      <c r="B231" s="8"/>
+      <c r="B231" s="21"/>
       <c r="C231" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D231" s="14"/>
-      <c r="E231" s="8"/>
+      <c r="E231" s="31"/>
       <c r="F231" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4378,13 +4587,13 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="5"/>
-      <c r="B232" s="8"/>
+      <c r="B232" s="21"/>
       <c r="C232" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D232" s="14"/>
-      <c r="E232" s="8"/>
+      <c r="E232" s="31"/>
       <c r="F232" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4394,13 +4603,13 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="5"/>
-      <c r="B233" s="8"/>
+      <c r="B233" s="21"/>
       <c r="C233" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D233" s="14"/>
-      <c r="E233" s="8"/>
+      <c r="E233" s="31"/>
       <c r="F233" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4410,13 +4619,13 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="5"/>
-      <c r="B234" s="8"/>
+      <c r="B234" s="21"/>
       <c r="C234" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D234" s="14"/>
-      <c r="E234" s="8"/>
+      <c r="E234" s="31"/>
       <c r="F234" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4426,13 +4635,13 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="5"/>
-      <c r="B235" s="8"/>
+      <c r="B235" s="21"/>
       <c r="C235" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D235" s="14"/>
-      <c r="E235" s="8"/>
+      <c r="E235" s="31"/>
       <c r="F235" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4442,13 +4651,13 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="5"/>
-      <c r="B236" s="8"/>
+      <c r="B236" s="21"/>
       <c r="C236" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D236" s="14"/>
-      <c r="E236" s="8"/>
+      <c r="E236" s="31"/>
       <c r="F236" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4458,13 +4667,13 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="5"/>
-      <c r="B237" s="8"/>
+      <c r="B237" s="21"/>
       <c r="C237" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D237" s="14"/>
-      <c r="E237" s="8"/>
+      <c r="E237" s="31"/>
       <c r="F237" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4474,13 +4683,13 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="5"/>
-      <c r="B238" s="8"/>
+      <c r="B238" s="21"/>
       <c r="C238" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D238" s="14"/>
-      <c r="E238" s="8"/>
+      <c r="E238" s="31"/>
       <c r="F238" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4490,13 +4699,13 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="5"/>
-      <c r="B239" s="8"/>
+      <c r="B239" s="21"/>
       <c r="C239" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D239" s="14"/>
-      <c r="E239" s="8"/>
+      <c r="E239" s="31"/>
       <c r="F239" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4506,13 +4715,13 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="5"/>
-      <c r="B240" s="8"/>
+      <c r="B240" s="21"/>
       <c r="C240" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D240" s="14"/>
-      <c r="E240" s="8"/>
+      <c r="E240" s="31"/>
       <c r="F240" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4522,13 +4731,13 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="5"/>
-      <c r="B241" s="8"/>
+      <c r="B241" s="21"/>
       <c r="C241" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D241" s="14"/>
-      <c r="E241" s="8"/>
+      <c r="E241" s="31"/>
       <c r="F241" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4538,13 +4747,13 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="5"/>
-      <c r="B242" s="8"/>
+      <c r="B242" s="21"/>
       <c r="C242" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D242" s="14"/>
-      <c r="E242" s="8"/>
+      <c r="E242" s="31"/>
       <c r="F242" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4554,13 +4763,13 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="5"/>
-      <c r="B243" s="8"/>
+      <c r="B243" s="21"/>
       <c r="C243" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D243" s="14"/>
-      <c r="E243" s="8"/>
+      <c r="E243" s="31"/>
       <c r="F243" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4570,13 +4779,13 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="5"/>
-      <c r="B244" s="8"/>
+      <c r="B244" s="21"/>
       <c r="C244" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D244" s="14"/>
-      <c r="E244" s="8"/>
+      <c r="E244" s="31"/>
       <c r="F244" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4586,13 +4795,13 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="5"/>
-      <c r="B245" s="8"/>
+      <c r="B245" s="21"/>
       <c r="C245" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D245" s="14"/>
-      <c r="E245" s="8"/>
+      <c r="E245" s="31"/>
       <c r="F245" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4602,13 +4811,13 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="5"/>
-      <c r="B246" s="8"/>
+      <c r="B246" s="21"/>
       <c r="C246" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D246" s="14"/>
-      <c r="E246" s="8"/>
+      <c r="E246" s="31"/>
       <c r="F246" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4618,13 +4827,13 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="5"/>
-      <c r="B247" s="8"/>
+      <c r="B247" s="21"/>
       <c r="C247" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D247" s="14"/>
-      <c r="E247" s="8"/>
+      <c r="E247" s="31"/>
       <c r="F247" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4634,13 +4843,13 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="5"/>
-      <c r="B248" s="8"/>
+      <c r="B248" s="21"/>
       <c r="C248" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D248" s="14"/>
-      <c r="E248" s="8"/>
+      <c r="E248" s="31"/>
       <c r="F248" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4650,13 +4859,13 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="5"/>
-      <c r="B249" s="8"/>
+      <c r="B249" s="21"/>
       <c r="C249" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D249" s="14"/>
-      <c r="E249" s="8"/>
+      <c r="E249" s="31"/>
       <c r="F249" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4666,13 +4875,13 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="5"/>
-      <c r="B250" s="8"/>
+      <c r="B250" s="21"/>
       <c r="C250" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D250" s="14"/>
-      <c r="E250" s="8"/>
+      <c r="E250" s="31"/>
       <c r="F250" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4682,13 +4891,13 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="5"/>
-      <c r="B251" s="8"/>
+      <c r="B251" s="21"/>
       <c r="C251" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D251" s="14"/>
-      <c r="E251" s="8"/>
+      <c r="E251" s="31"/>
       <c r="F251" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4698,13 +4907,13 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="5"/>
-      <c r="B252" s="8"/>
+      <c r="B252" s="21"/>
       <c r="C252" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D252" s="14"/>
-      <c r="E252" s="8"/>
+      <c r="E252" s="31"/>
       <c r="F252" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4714,13 +4923,13 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="5"/>
-      <c r="B253" s="8"/>
+      <c r="B253" s="21"/>
       <c r="C253" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D253" s="14"/>
-      <c r="E253" s="8"/>
+      <c r="E253" s="31"/>
       <c r="F253" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4730,13 +4939,13 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="5"/>
-      <c r="B254" s="8"/>
+      <c r="B254" s="21"/>
       <c r="C254" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D254" s="14"/>
-      <c r="E254" s="8"/>
+      <c r="E254" s="31"/>
       <c r="F254" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4746,13 +4955,13 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="5"/>
-      <c r="B255" s="8"/>
+      <c r="B255" s="21"/>
       <c r="C255" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D255" s="14"/>
-      <c r="E255" s="8"/>
+      <c r="E255" s="31"/>
       <c r="F255" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4762,13 +4971,13 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="5"/>
-      <c r="B256" s="8"/>
+      <c r="B256" s="21"/>
       <c r="C256" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D256" s="14"/>
-      <c r="E256" s="8"/>
+      <c r="E256" s="31"/>
       <c r="F256" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4778,13 +4987,13 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="5"/>
-      <c r="B257" s="8"/>
+      <c r="B257" s="21"/>
       <c r="C257" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D257" s="14"/>
-      <c r="E257" s="8"/>
+      <c r="E257" s="31"/>
       <c r="F257" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4794,13 +5003,13 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="5"/>
-      <c r="B258" s="8"/>
+      <c r="B258" s="21"/>
       <c r="C258" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D258" s="14"/>
-      <c r="E258" s="8"/>
+      <c r="E258" s="31"/>
       <c r="F258" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4810,13 +5019,13 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="5"/>
-      <c r="B259" s="8"/>
+      <c r="B259" s="21"/>
       <c r="C259" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D259" s="14"/>
-      <c r="E259" s="8"/>
+      <c r="E259" s="31"/>
       <c r="F259" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4826,13 +5035,13 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="5"/>
-      <c r="B260" s="8"/>
+      <c r="B260" s="21"/>
       <c r="C260" s="13" t="e">
         <f t="shared" ref="C260:C312" si="8">VLOOKUP(D260,Tabla_TIPBAU,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="D260" s="14"/>
-      <c r="E260" s="8"/>
+      <c r="E260" s="31"/>
       <c r="F260" s="13" t="e">
         <f t="shared" ref="F260:F312" si="9">VLOOKUP(G260,Tabla_TIPINI,2,)</f>
         <v>#N/A</v>
@@ -4842,13 +5051,13 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="5"/>
-      <c r="B261" s="8"/>
+      <c r="B261" s="21"/>
       <c r="C261" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D261" s="14"/>
-      <c r="E261" s="8"/>
+      <c r="E261" s="31"/>
       <c r="F261" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4858,13 +5067,13 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="5"/>
-      <c r="B262" s="8"/>
+      <c r="B262" s="21"/>
       <c r="C262" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D262" s="14"/>
-      <c r="E262" s="8"/>
+      <c r="E262" s="31"/>
       <c r="F262" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4874,13 +5083,13 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="5"/>
-      <c r="B263" s="8"/>
+      <c r="B263" s="21"/>
       <c r="C263" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D263" s="14"/>
-      <c r="E263" s="8"/>
+      <c r="E263" s="31"/>
       <c r="F263" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4890,13 +5099,13 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="5"/>
-      <c r="B264" s="8"/>
+      <c r="B264" s="21"/>
       <c r="C264" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D264" s="14"/>
-      <c r="E264" s="8"/>
+      <c r="E264" s="31"/>
       <c r="F264" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4906,13 +5115,13 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="5"/>
-      <c r="B265" s="8"/>
+      <c r="B265" s="21"/>
       <c r="C265" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D265" s="14"/>
-      <c r="E265" s="8"/>
+      <c r="E265" s="31"/>
       <c r="F265" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4922,13 +5131,13 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="5"/>
-      <c r="B266" s="8"/>
+      <c r="B266" s="21"/>
       <c r="C266" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D266" s="14"/>
-      <c r="E266" s="8"/>
+      <c r="E266" s="31"/>
       <c r="F266" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4938,13 +5147,13 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="5"/>
-      <c r="B267" s="8"/>
+      <c r="B267" s="21"/>
       <c r="C267" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D267" s="14"/>
-      <c r="E267" s="8"/>
+      <c r="E267" s="31"/>
       <c r="F267" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4954,13 +5163,13 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="5"/>
-      <c r="B268" s="8"/>
+      <c r="B268" s="21"/>
       <c r="C268" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D268" s="14"/>
-      <c r="E268" s="8"/>
+      <c r="E268" s="31"/>
       <c r="F268" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4970,13 +5179,13 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="5"/>
-      <c r="B269" s="8"/>
+      <c r="B269" s="21"/>
       <c r="C269" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D269" s="14"/>
-      <c r="E269" s="8"/>
+      <c r="E269" s="31"/>
       <c r="F269" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4986,13 +5195,13 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="5"/>
-      <c r="B270" s="8"/>
+      <c r="B270" s="21"/>
       <c r="C270" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D270" s="14"/>
-      <c r="E270" s="8"/>
+      <c r="E270" s="31"/>
       <c r="F270" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5002,13 +5211,13 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="5"/>
-      <c r="B271" s="8"/>
+      <c r="B271" s="21"/>
       <c r="C271" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D271" s="14"/>
-      <c r="E271" s="8"/>
+      <c r="E271" s="31"/>
       <c r="F271" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5018,13 +5227,13 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="5"/>
-      <c r="B272" s="8"/>
+      <c r="B272" s="21"/>
       <c r="C272" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D272" s="14"/>
-      <c r="E272" s="8"/>
+      <c r="E272" s="31"/>
       <c r="F272" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5034,13 +5243,13 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="5"/>
-      <c r="B273" s="8"/>
+      <c r="B273" s="21"/>
       <c r="C273" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D273" s="14"/>
-      <c r="E273" s="8"/>
+      <c r="E273" s="31"/>
       <c r="F273" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5050,13 +5259,13 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="5"/>
-      <c r="B274" s="8"/>
+      <c r="B274" s="21"/>
       <c r="C274" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D274" s="14"/>
-      <c r="E274" s="8"/>
+      <c r="E274" s="31"/>
       <c r="F274" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5066,13 +5275,13 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="5"/>
-      <c r="B275" s="8"/>
+      <c r="B275" s="21"/>
       <c r="C275" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D275" s="14"/>
-      <c r="E275" s="8"/>
+      <c r="E275" s="31"/>
       <c r="F275" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5082,13 +5291,13 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="5"/>
-      <c r="B276" s="8"/>
+      <c r="B276" s="21"/>
       <c r="C276" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D276" s="14"/>
-      <c r="E276" s="8"/>
+      <c r="E276" s="31"/>
       <c r="F276" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5098,13 +5307,13 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="5"/>
-      <c r="B277" s="8"/>
+      <c r="B277" s="21"/>
       <c r="C277" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D277" s="14"/>
-      <c r="E277" s="8"/>
+      <c r="E277" s="31"/>
       <c r="F277" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5114,13 +5323,13 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="5"/>
-      <c r="B278" s="8"/>
+      <c r="B278" s="21"/>
       <c r="C278" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D278" s="14"/>
-      <c r="E278" s="8"/>
+      <c r="E278" s="31"/>
       <c r="F278" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5130,13 +5339,13 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="5"/>
-      <c r="B279" s="8"/>
+      <c r="B279" s="21"/>
       <c r="C279" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D279" s="14"/>
-      <c r="E279" s="8"/>
+      <c r="E279" s="31"/>
       <c r="F279" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5146,13 +5355,13 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="5"/>
-      <c r="B280" s="8"/>
+      <c r="B280" s="21"/>
       <c r="C280" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D280" s="14"/>
-      <c r="E280" s="8"/>
+      <c r="E280" s="31"/>
       <c r="F280" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5162,13 +5371,13 @@
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="5"/>
-      <c r="B281" s="8"/>
+      <c r="B281" s="21"/>
       <c r="C281" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D281" s="14"/>
-      <c r="E281" s="8"/>
+      <c r="E281" s="31"/>
       <c r="F281" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5178,13 +5387,13 @@
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="5"/>
-      <c r="B282" s="8"/>
+      <c r="B282" s="21"/>
       <c r="C282" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D282" s="14"/>
-      <c r="E282" s="8"/>
+      <c r="E282" s="31"/>
       <c r="F282" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5194,13 +5403,13 @@
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="5"/>
-      <c r="B283" s="8"/>
+      <c r="B283" s="21"/>
       <c r="C283" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D283" s="14"/>
-      <c r="E283" s="8"/>
+      <c r="E283" s="31"/>
       <c r="F283" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5210,13 +5419,13 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="5"/>
-      <c r="B284" s="8"/>
+      <c r="B284" s="21"/>
       <c r="C284" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D284" s="14"/>
-      <c r="E284" s="8"/>
+      <c r="E284" s="31"/>
       <c r="F284" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5226,13 +5435,13 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="5"/>
-      <c r="B285" s="8"/>
+      <c r="B285" s="21"/>
       <c r="C285" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D285" s="14"/>
-      <c r="E285" s="8"/>
+      <c r="E285" s="31"/>
       <c r="F285" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5242,13 +5451,13 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="5"/>
-      <c r="B286" s="8"/>
+      <c r="B286" s="21"/>
       <c r="C286" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D286" s="14"/>
-      <c r="E286" s="8"/>
+      <c r="E286" s="31"/>
       <c r="F286" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5258,13 +5467,13 @@
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="5"/>
-      <c r="B287" s="8"/>
+      <c r="B287" s="21"/>
       <c r="C287" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D287" s="14"/>
-      <c r="E287" s="8"/>
+      <c r="E287" s="31"/>
       <c r="F287" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5274,13 +5483,13 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="5"/>
-      <c r="B288" s="8"/>
+      <c r="B288" s="21"/>
       <c r="C288" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D288" s="14"/>
-      <c r="E288" s="8"/>
+      <c r="E288" s="31"/>
       <c r="F288" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5290,13 +5499,13 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="5"/>
-      <c r="B289" s="8"/>
+      <c r="B289" s="21"/>
       <c r="C289" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D289" s="14"/>
-      <c r="E289" s="8"/>
+      <c r="E289" s="31"/>
       <c r="F289" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5306,13 +5515,13 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="5"/>
-      <c r="B290" s="8"/>
+      <c r="B290" s="21"/>
       <c r="C290" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D290" s="14"/>
-      <c r="E290" s="8"/>
+      <c r="E290" s="31"/>
       <c r="F290" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5322,13 +5531,13 @@
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="5"/>
-      <c r="B291" s="8"/>
+      <c r="B291" s="21"/>
       <c r="C291" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D291" s="14"/>
-      <c r="E291" s="8"/>
+      <c r="E291" s="31"/>
       <c r="F291" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5338,13 +5547,13 @@
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="5"/>
-      <c r="B292" s="8"/>
+      <c r="B292" s="21"/>
       <c r="C292" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D292" s="14"/>
-      <c r="E292" s="8"/>
+      <c r="E292" s="31"/>
       <c r="F292" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5354,13 +5563,13 @@
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="5"/>
-      <c r="B293" s="8"/>
+      <c r="B293" s="21"/>
       <c r="C293" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D293" s="14"/>
-      <c r="E293" s="8"/>
+      <c r="E293" s="31"/>
       <c r="F293" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5370,13 +5579,13 @@
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="5"/>
-      <c r="B294" s="8"/>
+      <c r="B294" s="21"/>
       <c r="C294" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D294" s="14"/>
-      <c r="E294" s="8"/>
+      <c r="E294" s="31"/>
       <c r="F294" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5386,13 +5595,13 @@
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="5"/>
-      <c r="B295" s="8"/>
+      <c r="B295" s="21"/>
       <c r="C295" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D295" s="14"/>
-      <c r="E295" s="8"/>
+      <c r="E295" s="31"/>
       <c r="F295" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5402,13 +5611,13 @@
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="5"/>
-      <c r="B296" s="8"/>
+      <c r="B296" s="21"/>
       <c r="C296" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D296" s="14"/>
-      <c r="E296" s="8"/>
+      <c r="E296" s="31"/>
       <c r="F296" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5418,13 +5627,13 @@
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="5"/>
-      <c r="B297" s="8"/>
+      <c r="B297" s="21"/>
       <c r="C297" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D297" s="14"/>
-      <c r="E297" s="8"/>
+      <c r="E297" s="31"/>
       <c r="F297" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5434,13 +5643,13 @@
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="5"/>
-      <c r="B298" s="8"/>
+      <c r="B298" s="21"/>
       <c r="C298" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D298" s="14"/>
-      <c r="E298" s="8"/>
+      <c r="E298" s="31"/>
       <c r="F298" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5450,13 +5659,13 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="5"/>
-      <c r="B299" s="8"/>
+      <c r="B299" s="21"/>
       <c r="C299" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D299" s="14"/>
-      <c r="E299" s="8"/>
+      <c r="E299" s="31"/>
       <c r="F299" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5466,13 +5675,13 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="5"/>
-      <c r="B300" s="8"/>
+      <c r="B300" s="21"/>
       <c r="C300" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D300" s="14"/>
-      <c r="E300" s="8"/>
+      <c r="E300" s="31"/>
       <c r="F300" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5482,13 +5691,13 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="5"/>
-      <c r="B301" s="8"/>
+      <c r="B301" s="21"/>
       <c r="C301" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D301" s="14"/>
-      <c r="E301" s="8"/>
+      <c r="E301" s="31"/>
       <c r="F301" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5498,13 +5707,13 @@
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="5"/>
-      <c r="B302" s="8"/>
+      <c r="B302" s="21"/>
       <c r="C302" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D302" s="14"/>
-      <c r="E302" s="8"/>
+      <c r="E302" s="31"/>
       <c r="F302" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5514,13 +5723,13 @@
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="5"/>
-      <c r="B303" s="8"/>
+      <c r="B303" s="21"/>
       <c r="C303" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D303" s="14"/>
-      <c r="E303" s="8"/>
+      <c r="E303" s="31"/>
       <c r="F303" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5530,13 +5739,13 @@
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="5"/>
-      <c r="B304" s="8"/>
+      <c r="B304" s="21"/>
       <c r="C304" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D304" s="14"/>
-      <c r="E304" s="8"/>
+      <c r="E304" s="31"/>
       <c r="F304" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5546,13 +5755,13 @@
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="5"/>
-      <c r="B305" s="8"/>
+      <c r="B305" s="21"/>
       <c r="C305" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D305" s="14"/>
-      <c r="E305" s="8"/>
+      <c r="E305" s="31"/>
       <c r="F305" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5562,13 +5771,13 @@
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="5"/>
-      <c r="B306" s="8"/>
+      <c r="B306" s="21"/>
       <c r="C306" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D306" s="14"/>
-      <c r="E306" s="8"/>
+      <c r="E306" s="31"/>
       <c r="F306" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5578,13 +5787,13 @@
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="5"/>
-      <c r="B307" s="8"/>
+      <c r="B307" s="21"/>
       <c r="C307" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D307" s="14"/>
-      <c r="E307" s="8"/>
+      <c r="E307" s="31"/>
       <c r="F307" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5594,13 +5803,13 @@
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="5"/>
-      <c r="B308" s="8"/>
+      <c r="B308" s="21"/>
       <c r="C308" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D308" s="14"/>
-      <c r="E308" s="8"/>
+      <c r="E308" s="31"/>
       <c r="F308" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5610,13 +5819,13 @@
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="5"/>
-      <c r="B309" s="8"/>
+      <c r="B309" s="21"/>
       <c r="C309" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D309" s="14"/>
-      <c r="E309" s="8"/>
+      <c r="E309" s="31"/>
       <c r="F309" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5626,13 +5835,13 @@
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="5"/>
-      <c r="B310" s="8"/>
+      <c r="B310" s="21"/>
       <c r="C310" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D310" s="14"/>
-      <c r="E310" s="8"/>
+      <c r="E310" s="31"/>
       <c r="F310" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5642,13 +5851,13 @@
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="5"/>
-      <c r="B311" s="8"/>
+      <c r="B311" s="21"/>
       <c r="C311" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D311" s="14"/>
-      <c r="E311" s="8"/>
+      <c r="E311" s="31"/>
       <c r="F311" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5658,7 +5867,7 @@
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="5"/>
-      <c r="B312" s="6"/>
+      <c r="B312" s="20"/>
       <c r="C312" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
@@ -5673,27 +5882,33 @@
       <c r="H312" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1bkvobGdtvZtZMFlG7YG+temPWNT3pCuTn67gdrJtujIiPV0M4ZDBGaNpcPR0KtQQRPNddGimLOS6KxEQawyIw==" saltValue="KkfIHVNnqZ5lXvTs8ZYf+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/4QBx4nj3Xsxx3QiKsDeNbYVGkvPYTvNFqKEOZkyEnDXehOnzFuxAVthPPJqYYIISQJKM8Ec+uifsTSZcwmlkw==" saltValue="W+7aBfkXwKUHaZpWZI2siQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A2:H2"/>
   </mergeCells>
-  <dataValidations count="6">
+  <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A312" xr:uid="{53EDBA05-EEC0-434C-BA38-74D539B08692}">
       <formula1>Lista_Anno</formula1>
-    </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B4:B311 E4:E17 E19:E311" xr:uid="{C2EBAC76-0D73-4E5E-9598-8703ED870BD7}">
-      <formula1>0</formula1>
-      <formula2>9999</formula2>
     </dataValidation>
     <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="H4:H311" xr:uid="{53A9A871-7DDC-43D5-B9C9-891BB6C13537}">
       <formula1>0</formula1>
       <formula2>999999999</formula2>
     </dataValidation>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C4:C312 F4:F312" xr:uid="{26E374A7-38C3-4BE4-B8C7-32554CAB14CC}"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4:D312" xr:uid="{BB785608-9A8A-44DE-8B9B-D1761CCF5704}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D312" xr:uid="{BB785608-9A8A-44DE-8B9B-D1761CCF5704}">
       <formula1>Lista_TIPBAU</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G4:G312" xr:uid="{C2B20C9A-7C1B-477F-88D2-4A234E18C2AC}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G312" xr:uid="{C2B20C9A-7C1B-477F-88D2-4A234E18C2AC}">
+      <formula1>Lista_TIPINI</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B4:B311 E4:E311" xr:uid="{822C0204-496E-4B7F-A852-E1F7B29E252A}">
+      <formula1>0</formula1>
+      <formula2>99999999999999.9</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D311" xr:uid="{FAD0833D-671A-483B-B694-8B26E36DEFFF}">
+      <formula1>Lista_TIPBAU</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G311" xr:uid="{195FAF35-7256-407B-82D3-0B07C49426B8}">
       <formula1>Lista_TIPINI</formula1>
     </dataValidation>
   </dataValidations>

--- a/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/Documentos/1.6 Plantilla_Reemplazo_de_lamparas_de_sector_publico.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/Documentos/1.6 Plantilla_Reemplazo_de_lamparas_de_sector_publico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Versión borrado de meses y fechas SOLO SE DEJO AÑOS _V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ESCRITORIO\Excls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559AF6BE-5EC3-4F63-AED2-7941733F570E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F1E367-06AE-4E18-B061-92E4B484EE89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{429C6A72-8D08-4088-A1CE-833765DF0018}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{429C6A72-8D08-4088-A1CE-833765DF0018}"/>
   </bookViews>
   <sheets>
     <sheet name="Reemplazo de lámparas de sector" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,11 @@
   <definedNames>
     <definedName name="Lista_Anno">Hoja2!$A$4:$A$24</definedName>
     <definedName name="Lista_Mes">Hoja2!$C$6:$C$17</definedName>
+    <definedName name="Lista_New_TIPBAU">Hoja2!$F$6:$F$9</definedName>
     <definedName name="Lista_TIPBAU">Hoja2!$F$6:$F$8</definedName>
     <definedName name="Lista_TIPINI">Hoja2!$I$6</definedName>
     <definedName name="Tabla_Mes">Hoja2!$C$6:$D$17</definedName>
+    <definedName name="Tabla_New_TIPBAU">Hoja2!$F$6:$G$9</definedName>
     <definedName name="Tabla_TIPBAU">Hoja2!$F$6:$G$8</definedName>
     <definedName name="Tabla_TIPINI">Hoja2!$I$6:$J$6</definedName>
   </definedNames>
@@ -30,18 +32,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>Año</t>
   </si>
@@ -149,6 +145,9 @@
   </si>
   <si>
     <t>Tipo de Lámpara Acción</t>
+  </si>
+  <si>
+    <t>Otros</t>
   </si>
 </sst>
 </file>
@@ -364,36 +363,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -407,11 +376,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -522,6 +517,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -850,14 +846,14 @@
   <dimension ref="A1:H312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.85546875" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="31.28515625" customWidth="1"/>
     <col min="5" max="5" width="32.28515625" customWidth="1"/>
     <col min="6" max="6" width="26.85546875" hidden="1" customWidth="1"/>
@@ -892,16 +888,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
@@ -933,7 +929,7 @@
         <v>40.729999999999997</v>
       </c>
       <c r="C4" s="23">
-        <f t="shared" ref="C4:C67" si="0">VLOOKUP(D4,Tabla_TIPBAU,2,)</f>
+        <f t="shared" ref="C4:C67" si="0">VLOOKUP(D4,Tabla_New_TIPBAU,2,)</f>
         <v>1</v>
       </c>
       <c r="D4" s="15" t="s">
@@ -961,7 +957,7 @@
         <v>#N/A</v>
       </c>
       <c r="D5" s="30"/>
-      <c r="E5" s="33"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -976,8 +972,8 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="33"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -988,12 +984,12 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="25"/>
-      <c r="C7" s="13" t="e">
+      <c r="C7" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D7" s="14"/>
-      <c r="E7" s="32"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1004,12 +1000,12 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="21"/>
-      <c r="C8" s="13" t="e">
+      <c r="C8" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D8" s="14"/>
-      <c r="E8" s="31"/>
+      <c r="E8" s="34"/>
       <c r="F8" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1020,12 +1016,12 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="21"/>
-      <c r="C9" s="13" t="e">
+      <c r="C9" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D9" s="14"/>
-      <c r="E9" s="31"/>
+      <c r="E9" s="34"/>
       <c r="F9" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1036,12 +1032,12 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="21"/>
-      <c r="C10" s="13" t="e">
+      <c r="C10" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D10" s="14"/>
-      <c r="E10" s="31"/>
+      <c r="E10" s="34"/>
       <c r="F10" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1052,12 +1048,12 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="21"/>
-      <c r="C11" s="13" t="e">
+      <c r="C11" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D11" s="14"/>
-      <c r="E11" s="31"/>
+      <c r="E11" s="34"/>
       <c r="F11" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1068,12 +1064,12 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="21"/>
-      <c r="C12" s="13" t="e">
+      <c r="C12" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D12" s="14"/>
-      <c r="E12" s="31"/>
+      <c r="E12" s="34"/>
       <c r="F12" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1084,12 +1080,12 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="21"/>
-      <c r="C13" s="13" t="e">
+      <c r="C13" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D13" s="14"/>
-      <c r="E13" s="31"/>
+      <c r="E13" s="34"/>
       <c r="F13" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1100,12 +1096,12 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="21"/>
-      <c r="C14" s="13" t="e">
+      <c r="C14" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D14" s="14"/>
-      <c r="E14" s="31"/>
+      <c r="E14" s="34"/>
       <c r="F14" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1116,12 +1112,12 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="21"/>
-      <c r="C15" s="13" t="e">
+      <c r="C15" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D15" s="14"/>
-      <c r="E15" s="31"/>
+      <c r="E15" s="34"/>
       <c r="F15" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1132,12 +1128,12 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="21"/>
-      <c r="C16" s="13" t="e">
+      <c r="C16" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D16" s="14"/>
-      <c r="E16" s="31"/>
+      <c r="E16" s="34"/>
       <c r="F16" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1148,12 +1144,12 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="21"/>
-      <c r="C17" s="13" t="e">
+      <c r="C17" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D17" s="14"/>
-      <c r="E17" s="31"/>
+      <c r="E17" s="34"/>
       <c r="F17" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1164,12 +1160,12 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="21"/>
-      <c r="C18" s="13" t="e">
+      <c r="C18" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D18" s="14"/>
-      <c r="E18" s="31"/>
+      <c r="E18" s="34"/>
       <c r="F18" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1180,12 +1176,12 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="21"/>
-      <c r="C19" s="13" t="e">
+      <c r="C19" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D19" s="14"/>
-      <c r="E19" s="31"/>
+      <c r="E19" s="34"/>
       <c r="F19" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1196,12 +1192,12 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="21"/>
-      <c r="C20" s="13" t="e">
+      <c r="C20" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D20" s="14"/>
-      <c r="E20" s="31"/>
+      <c r="E20" s="34"/>
       <c r="F20" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1212,12 +1208,12 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="21"/>
-      <c r="C21" s="13" t="e">
+      <c r="C21" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D21" s="14"/>
-      <c r="E21" s="31"/>
+      <c r="E21" s="34"/>
       <c r="F21" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1228,12 +1224,12 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="21"/>
-      <c r="C22" s="13" t="e">
+      <c r="C22" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D22" s="14"/>
-      <c r="E22" s="31"/>
+      <c r="E22" s="34"/>
       <c r="F22" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1244,12 +1240,12 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="21"/>
-      <c r="C23" s="13" t="e">
+      <c r="C23" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D23" s="14"/>
-      <c r="E23" s="31"/>
+      <c r="E23" s="34"/>
       <c r="F23" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1260,12 +1256,12 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="21"/>
-      <c r="C24" s="13" t="e">
+      <c r="C24" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D24" s="14"/>
-      <c r="E24" s="31"/>
+      <c r="E24" s="34"/>
       <c r="F24" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1276,12 +1272,12 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="21"/>
-      <c r="C25" s="13" t="e">
+      <c r="C25" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D25" s="14"/>
-      <c r="E25" s="31"/>
+      <c r="E25" s="34"/>
       <c r="F25" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1292,12 +1288,12 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="21"/>
-      <c r="C26" s="13" t="e">
+      <c r="C26" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D26" s="14"/>
-      <c r="E26" s="31"/>
+      <c r="E26" s="34"/>
       <c r="F26" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1308,12 +1304,12 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="21"/>
-      <c r="C27" s="13" t="e">
+      <c r="C27" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D27" s="14"/>
-      <c r="E27" s="31"/>
+      <c r="E27" s="34"/>
       <c r="F27" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1324,12 +1320,12 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="21"/>
-      <c r="C28" s="13" t="e">
+      <c r="C28" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D28" s="14"/>
-      <c r="E28" s="31"/>
+      <c r="E28" s="34"/>
       <c r="F28" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1340,12 +1336,12 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="21"/>
-      <c r="C29" s="13" t="e">
+      <c r="C29" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D29" s="14"/>
-      <c r="E29" s="31"/>
+      <c r="E29" s="34"/>
       <c r="F29" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1356,12 +1352,12 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="21"/>
-      <c r="C30" s="13" t="e">
+      <c r="C30" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D30" s="14"/>
-      <c r="E30" s="31"/>
+      <c r="E30" s="34"/>
       <c r="F30" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1372,12 +1368,12 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="21"/>
-      <c r="C31" s="13" t="e">
+      <c r="C31" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D31" s="14"/>
-      <c r="E31" s="31"/>
+      <c r="E31" s="34"/>
       <c r="F31" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1388,12 +1384,12 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="21"/>
-      <c r="C32" s="13" t="e">
+      <c r="C32" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D32" s="14"/>
-      <c r="E32" s="31"/>
+      <c r="E32" s="34"/>
       <c r="F32" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1404,12 +1400,12 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="21"/>
-      <c r="C33" s="13" t="e">
+      <c r="C33" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D33" s="14"/>
-      <c r="E33" s="31"/>
+      <c r="E33" s="34"/>
       <c r="F33" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1420,12 +1416,12 @@
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="21"/>
-      <c r="C34" s="13" t="e">
+      <c r="C34" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D34" s="14"/>
-      <c r="E34" s="31"/>
+      <c r="E34" s="34"/>
       <c r="F34" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1436,12 +1432,12 @@
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="21"/>
-      <c r="C35" s="13" t="e">
+      <c r="C35" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D35" s="14"/>
-      <c r="E35" s="31"/>
+      <c r="E35" s="34"/>
       <c r="F35" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1452,12 +1448,12 @@
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="21"/>
-      <c r="C36" s="13" t="e">
+      <c r="C36" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D36" s="14"/>
-      <c r="E36" s="31"/>
+      <c r="E36" s="34"/>
       <c r="F36" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1468,12 +1464,12 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="21"/>
-      <c r="C37" s="13" t="e">
+      <c r="C37" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D37" s="14"/>
-      <c r="E37" s="31"/>
+      <c r="E37" s="34"/>
       <c r="F37" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1484,12 +1480,12 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="21"/>
-      <c r="C38" s="13" t="e">
+      <c r="C38" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D38" s="14"/>
-      <c r="E38" s="31"/>
+      <c r="E38" s="34"/>
       <c r="F38" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1500,12 +1496,12 @@
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="21"/>
-      <c r="C39" s="13" t="e">
+      <c r="C39" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D39" s="14"/>
-      <c r="E39" s="31"/>
+      <c r="E39" s="34"/>
       <c r="F39" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1516,12 +1512,12 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="21"/>
-      <c r="C40" s="13" t="e">
+      <c r="C40" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D40" s="14"/>
-      <c r="E40" s="31"/>
+      <c r="E40" s="34"/>
       <c r="F40" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1532,12 +1528,12 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="21"/>
-      <c r="C41" s="13" t="e">
+      <c r="C41" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D41" s="14"/>
-      <c r="E41" s="31"/>
+      <c r="E41" s="34"/>
       <c r="F41" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1548,12 +1544,12 @@
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="21"/>
-      <c r="C42" s="13" t="e">
+      <c r="C42" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D42" s="14"/>
-      <c r="E42" s="31"/>
+      <c r="E42" s="34"/>
       <c r="F42" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1564,12 +1560,12 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="21"/>
-      <c r="C43" s="13" t="e">
+      <c r="C43" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D43" s="14"/>
-      <c r="E43" s="31"/>
+      <c r="E43" s="34"/>
       <c r="F43" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1580,12 +1576,12 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="21"/>
-      <c r="C44" s="13" t="e">
+      <c r="C44" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D44" s="14"/>
-      <c r="E44" s="31"/>
+      <c r="E44" s="34"/>
       <c r="F44" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1596,12 +1592,12 @@
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="21"/>
-      <c r="C45" s="13" t="e">
+      <c r="C45" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D45" s="14"/>
-      <c r="E45" s="31"/>
+      <c r="E45" s="34"/>
       <c r="F45" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1612,12 +1608,12 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="21"/>
-      <c r="C46" s="13" t="e">
+      <c r="C46" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D46" s="14"/>
-      <c r="E46" s="31"/>
+      <c r="E46" s="34"/>
       <c r="F46" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1628,12 +1624,12 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="21"/>
-      <c r="C47" s="13" t="e">
+      <c r="C47" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D47" s="14"/>
-      <c r="E47" s="31"/>
+      <c r="E47" s="34"/>
       <c r="F47" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1644,12 +1640,12 @@
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="21"/>
-      <c r="C48" s="13" t="e">
+      <c r="C48" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D48" s="14"/>
-      <c r="E48" s="31"/>
+      <c r="E48" s="34"/>
       <c r="F48" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1660,12 +1656,12 @@
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="21"/>
-      <c r="C49" s="13" t="e">
+      <c r="C49" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D49" s="14"/>
-      <c r="E49" s="31"/>
+      <c r="E49" s="34"/>
       <c r="F49" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1676,12 +1672,12 @@
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="21"/>
-      <c r="C50" s="13" t="e">
+      <c r="C50" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D50" s="14"/>
-      <c r="E50" s="31"/>
+      <c r="E50" s="34"/>
       <c r="F50" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1692,12 +1688,12 @@
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="21"/>
-      <c r="C51" s="13" t="e">
+      <c r="C51" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D51" s="14"/>
-      <c r="E51" s="31"/>
+      <c r="E51" s="34"/>
       <c r="F51" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1708,12 +1704,12 @@
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="21"/>
-      <c r="C52" s="13" t="e">
+      <c r="C52" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D52" s="14"/>
-      <c r="E52" s="31"/>
+      <c r="E52" s="34"/>
       <c r="F52" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1724,12 +1720,12 @@
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="21"/>
-      <c r="C53" s="13" t="e">
+      <c r="C53" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D53" s="14"/>
-      <c r="E53" s="31"/>
+      <c r="E53" s="34"/>
       <c r="F53" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1740,12 +1736,12 @@
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="21"/>
-      <c r="C54" s="13" t="e">
+      <c r="C54" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D54" s="14"/>
-      <c r="E54" s="31"/>
+      <c r="E54" s="34"/>
       <c r="F54" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1756,12 +1752,12 @@
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="21"/>
-      <c r="C55" s="13" t="e">
+      <c r="C55" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D55" s="14"/>
-      <c r="E55" s="31"/>
+      <c r="E55" s="34"/>
       <c r="F55" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1772,12 +1768,12 @@
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="21"/>
-      <c r="C56" s="13" t="e">
+      <c r="C56" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D56" s="14"/>
-      <c r="E56" s="31"/>
+      <c r="E56" s="34"/>
       <c r="F56" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1788,12 +1784,12 @@
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="21"/>
-      <c r="C57" s="13" t="e">
+      <c r="C57" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D57" s="14"/>
-      <c r="E57" s="31"/>
+      <c r="E57" s="34"/>
       <c r="F57" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1804,12 +1800,12 @@
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="21"/>
-      <c r="C58" s="13" t="e">
+      <c r="C58" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D58" s="14"/>
-      <c r="E58" s="31"/>
+      <c r="E58" s="34"/>
       <c r="F58" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1820,12 +1816,12 @@
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="21"/>
-      <c r="C59" s="13" t="e">
+      <c r="C59" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D59" s="14"/>
-      <c r="E59" s="31"/>
+      <c r="E59" s="34"/>
       <c r="F59" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1836,12 +1832,12 @@
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="21"/>
-      <c r="C60" s="13" t="e">
+      <c r="C60" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D60" s="14"/>
-      <c r="E60" s="31"/>
+      <c r="E60" s="34"/>
       <c r="F60" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1852,12 +1848,12 @@
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="21"/>
-      <c r="C61" s="13" t="e">
+      <c r="C61" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D61" s="14"/>
-      <c r="E61" s="31"/>
+      <c r="E61" s="34"/>
       <c r="F61" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1868,12 +1864,12 @@
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" s="21"/>
-      <c r="C62" s="13" t="e">
+      <c r="C62" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D62" s="14"/>
-      <c r="E62" s="31"/>
+      <c r="E62" s="34"/>
       <c r="F62" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1884,12 +1880,12 @@
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="21"/>
-      <c r="C63" s="13" t="e">
+      <c r="C63" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D63" s="14"/>
-      <c r="E63" s="31"/>
+      <c r="E63" s="34"/>
       <c r="F63" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1900,12 +1896,12 @@
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="21"/>
-      <c r="C64" s="13" t="e">
+      <c r="C64" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D64" s="14"/>
-      <c r="E64" s="31"/>
+      <c r="E64" s="34"/>
       <c r="F64" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1916,12 +1912,12 @@
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" s="21"/>
-      <c r="C65" s="13" t="e">
+      <c r="C65" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D65" s="14"/>
-      <c r="E65" s="31"/>
+      <c r="E65" s="34"/>
       <c r="F65" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1932,12 +1928,12 @@
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="21"/>
-      <c r="C66" s="13" t="e">
+      <c r="C66" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D66" s="14"/>
-      <c r="E66" s="31"/>
+      <c r="E66" s="34"/>
       <c r="F66" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1948,12 +1944,12 @@
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="21"/>
-      <c r="C67" s="13" t="e">
+      <c r="C67" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D67" s="14"/>
-      <c r="E67" s="31"/>
+      <c r="E67" s="34"/>
       <c r="F67" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1964,12 +1960,12 @@
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="B68" s="21"/>
-      <c r="C68" s="13" t="e">
-        <f t="shared" ref="C68:C131" si="2">VLOOKUP(D68,Tabla_TIPBAU,2,)</f>
+      <c r="C68" s="19" t="e">
+        <f t="shared" ref="C68:C131" si="2">VLOOKUP(D68,Tabla_New_TIPBAU,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="D68" s="14"/>
-      <c r="E68" s="31"/>
+      <c r="E68" s="34"/>
       <c r="F68" s="13" t="e">
         <f t="shared" ref="F68:F131" si="3">VLOOKUP(G68,Tabla_TIPINI,2,)</f>
         <v>#N/A</v>
@@ -1980,12 +1976,12 @@
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="21"/>
-      <c r="C69" s="13" t="e">
+      <c r="C69" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D69" s="14"/>
-      <c r="E69" s="31"/>
+      <c r="E69" s="34"/>
       <c r="F69" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1996,12 +1992,12 @@
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="21"/>
-      <c r="C70" s="13" t="e">
+      <c r="C70" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D70" s="14"/>
-      <c r="E70" s="31"/>
+      <c r="E70" s="34"/>
       <c r="F70" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2012,12 +2008,12 @@
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="21"/>
-      <c r="C71" s="13" t="e">
+      <c r="C71" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D71" s="14"/>
-      <c r="E71" s="31"/>
+      <c r="E71" s="34"/>
       <c r="F71" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2028,12 +2024,12 @@
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="21"/>
-      <c r="C72" s="13" t="e">
+      <c r="C72" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D72" s="14"/>
-      <c r="E72" s="31"/>
+      <c r="E72" s="34"/>
       <c r="F72" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2044,12 +2040,12 @@
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="21"/>
-      <c r="C73" s="13" t="e">
+      <c r="C73" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D73" s="14"/>
-      <c r="E73" s="31"/>
+      <c r="E73" s="34"/>
       <c r="F73" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2060,12 +2056,12 @@
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="B74" s="21"/>
-      <c r="C74" s="13" t="e">
+      <c r="C74" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D74" s="14"/>
-      <c r="E74" s="31"/>
+      <c r="E74" s="34"/>
       <c r="F74" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2076,12 +2072,12 @@
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="B75" s="21"/>
-      <c r="C75" s="13" t="e">
+      <c r="C75" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D75" s="14"/>
-      <c r="E75" s="31"/>
+      <c r="E75" s="34"/>
       <c r="F75" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2092,12 +2088,12 @@
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="B76" s="21"/>
-      <c r="C76" s="13" t="e">
+      <c r="C76" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D76" s="14"/>
-      <c r="E76" s="31"/>
+      <c r="E76" s="34"/>
       <c r="F76" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2108,12 +2104,12 @@
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="21"/>
-      <c r="C77" s="13" t="e">
+      <c r="C77" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D77" s="14"/>
-      <c r="E77" s="31"/>
+      <c r="E77" s="34"/>
       <c r="F77" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2124,12 +2120,12 @@
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" s="21"/>
-      <c r="C78" s="13" t="e">
+      <c r="C78" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D78" s="14"/>
-      <c r="E78" s="31"/>
+      <c r="E78" s="34"/>
       <c r="F78" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2140,12 +2136,12 @@
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="21"/>
-      <c r="C79" s="13" t="e">
+      <c r="C79" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D79" s="14"/>
-      <c r="E79" s="31"/>
+      <c r="E79" s="34"/>
       <c r="F79" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2156,12 +2152,12 @@
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="B80" s="21"/>
-      <c r="C80" s="13" t="e">
+      <c r="C80" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D80" s="14"/>
-      <c r="E80" s="31"/>
+      <c r="E80" s="34"/>
       <c r="F80" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2172,12 +2168,12 @@
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="B81" s="21"/>
-      <c r="C81" s="13" t="e">
+      <c r="C81" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D81" s="14"/>
-      <c r="E81" s="31"/>
+      <c r="E81" s="34"/>
       <c r="F81" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2188,12 +2184,12 @@
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" s="21"/>
-      <c r="C82" s="13" t="e">
+      <c r="C82" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D82" s="14"/>
-      <c r="E82" s="31"/>
+      <c r="E82" s="34"/>
       <c r="F82" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2204,12 +2200,12 @@
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="21"/>
-      <c r="C83" s="13" t="e">
+      <c r="C83" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D83" s="14"/>
-      <c r="E83" s="31"/>
+      <c r="E83" s="34"/>
       <c r="F83" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2220,12 +2216,12 @@
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="B84" s="21"/>
-      <c r="C84" s="13" t="e">
+      <c r="C84" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D84" s="14"/>
-      <c r="E84" s="31"/>
+      <c r="E84" s="34"/>
       <c r="F84" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2236,12 +2232,12 @@
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" s="21"/>
-      <c r="C85" s="13" t="e">
+      <c r="C85" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D85" s="14"/>
-      <c r="E85" s="31"/>
+      <c r="E85" s="34"/>
       <c r="F85" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2252,12 +2248,12 @@
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="B86" s="21"/>
-      <c r="C86" s="13" t="e">
+      <c r="C86" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D86" s="14"/>
-      <c r="E86" s="31"/>
+      <c r="E86" s="34"/>
       <c r="F86" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2268,12 +2264,12 @@
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="B87" s="21"/>
-      <c r="C87" s="13" t="e">
+      <c r="C87" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D87" s="14"/>
-      <c r="E87" s="31"/>
+      <c r="E87" s="34"/>
       <c r="F87" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2284,12 +2280,12 @@
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="21"/>
-      <c r="C88" s="13" t="e">
+      <c r="C88" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D88" s="14"/>
-      <c r="E88" s="31"/>
+      <c r="E88" s="34"/>
       <c r="F88" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2300,12 +2296,12 @@
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="B89" s="21"/>
-      <c r="C89" s="13" t="e">
+      <c r="C89" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D89" s="14"/>
-      <c r="E89" s="31"/>
+      <c r="E89" s="34"/>
       <c r="F89" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2316,12 +2312,12 @@
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="B90" s="21"/>
-      <c r="C90" s="13" t="e">
+      <c r="C90" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D90" s="14"/>
-      <c r="E90" s="31"/>
+      <c r="E90" s="34"/>
       <c r="F90" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2332,12 +2328,12 @@
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="B91" s="21"/>
-      <c r="C91" s="13" t="e">
+      <c r="C91" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D91" s="14"/>
-      <c r="E91" s="31"/>
+      <c r="E91" s="34"/>
       <c r="F91" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2348,12 +2344,12 @@
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="B92" s="21"/>
-      <c r="C92" s="13" t="e">
+      <c r="C92" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D92" s="14"/>
-      <c r="E92" s="31"/>
+      <c r="E92" s="34"/>
       <c r="F92" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2364,12 +2360,12 @@
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
       <c r="B93" s="21"/>
-      <c r="C93" s="13" t="e">
+      <c r="C93" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D93" s="14"/>
-      <c r="E93" s="31"/>
+      <c r="E93" s="34"/>
       <c r="F93" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2380,12 +2376,12 @@
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="B94" s="21"/>
-      <c r="C94" s="13" t="e">
+      <c r="C94" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D94" s="14"/>
-      <c r="E94" s="31"/>
+      <c r="E94" s="34"/>
       <c r="F94" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2396,12 +2392,12 @@
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="B95" s="21"/>
-      <c r="C95" s="13" t="e">
+      <c r="C95" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D95" s="14"/>
-      <c r="E95" s="31"/>
+      <c r="E95" s="34"/>
       <c r="F95" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2412,12 +2408,12 @@
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="B96" s="21"/>
-      <c r="C96" s="13" t="e">
+      <c r="C96" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D96" s="14"/>
-      <c r="E96" s="31"/>
+      <c r="E96" s="34"/>
       <c r="F96" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2428,12 +2424,12 @@
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="B97" s="21"/>
-      <c r="C97" s="13" t="e">
+      <c r="C97" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D97" s="14"/>
-      <c r="E97" s="31"/>
+      <c r="E97" s="34"/>
       <c r="F97" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2444,12 +2440,12 @@
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="B98" s="21"/>
-      <c r="C98" s="13" t="e">
+      <c r="C98" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D98" s="14"/>
-      <c r="E98" s="31"/>
+      <c r="E98" s="34"/>
       <c r="F98" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2460,12 +2456,12 @@
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
       <c r="B99" s="21"/>
-      <c r="C99" s="13" t="e">
+      <c r="C99" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D99" s="14"/>
-      <c r="E99" s="31"/>
+      <c r="E99" s="34"/>
       <c r="F99" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2476,12 +2472,12 @@
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
       <c r="B100" s="21"/>
-      <c r="C100" s="13" t="e">
+      <c r="C100" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D100" s="14"/>
-      <c r="E100" s="31"/>
+      <c r="E100" s="34"/>
       <c r="F100" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2492,12 +2488,12 @@
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="B101" s="21"/>
-      <c r="C101" s="13" t="e">
+      <c r="C101" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D101" s="14"/>
-      <c r="E101" s="31"/>
+      <c r="E101" s="34"/>
       <c r="F101" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2508,12 +2504,12 @@
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
       <c r="B102" s="21"/>
-      <c r="C102" s="13" t="e">
+      <c r="C102" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D102" s="14"/>
-      <c r="E102" s="31"/>
+      <c r="E102" s="34"/>
       <c r="F102" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2524,12 +2520,12 @@
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
       <c r="B103" s="21"/>
-      <c r="C103" s="13" t="e">
+      <c r="C103" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D103" s="14"/>
-      <c r="E103" s="31"/>
+      <c r="E103" s="34"/>
       <c r="F103" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2540,12 +2536,12 @@
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
       <c r="B104" s="21"/>
-      <c r="C104" s="13" t="e">
+      <c r="C104" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D104" s="14"/>
-      <c r="E104" s="31"/>
+      <c r="E104" s="34"/>
       <c r="F104" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2556,12 +2552,12 @@
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
       <c r="B105" s="21"/>
-      <c r="C105" s="13" t="e">
+      <c r="C105" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D105" s="14"/>
-      <c r="E105" s="31"/>
+      <c r="E105" s="34"/>
       <c r="F105" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2572,12 +2568,12 @@
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
       <c r="B106" s="21"/>
-      <c r="C106" s="13" t="e">
+      <c r="C106" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D106" s="14"/>
-      <c r="E106" s="31"/>
+      <c r="E106" s="34"/>
       <c r="F106" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2588,12 +2584,12 @@
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
       <c r="B107" s="21"/>
-      <c r="C107" s="13" t="e">
+      <c r="C107" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D107" s="14"/>
-      <c r="E107" s="31"/>
+      <c r="E107" s="34"/>
       <c r="F107" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2604,12 +2600,12 @@
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
       <c r="B108" s="21"/>
-      <c r="C108" s="13" t="e">
+      <c r="C108" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D108" s="14"/>
-      <c r="E108" s="31"/>
+      <c r="E108" s="34"/>
       <c r="F108" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2620,12 +2616,12 @@
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
       <c r="B109" s="21"/>
-      <c r="C109" s="13" t="e">
+      <c r="C109" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D109" s="14"/>
-      <c r="E109" s="31"/>
+      <c r="E109" s="34"/>
       <c r="F109" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2636,12 +2632,12 @@
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
       <c r="B110" s="21"/>
-      <c r="C110" s="13" t="e">
+      <c r="C110" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D110" s="14"/>
-      <c r="E110" s="31"/>
+      <c r="E110" s="34"/>
       <c r="F110" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2652,12 +2648,12 @@
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
       <c r="B111" s="21"/>
-      <c r="C111" s="13" t="e">
+      <c r="C111" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D111" s="14"/>
-      <c r="E111" s="31"/>
+      <c r="E111" s="34"/>
       <c r="F111" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2668,12 +2664,12 @@
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
       <c r="B112" s="21"/>
-      <c r="C112" s="13" t="e">
+      <c r="C112" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D112" s="14"/>
-      <c r="E112" s="31"/>
+      <c r="E112" s="34"/>
       <c r="F112" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2684,12 +2680,12 @@
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
       <c r="B113" s="21"/>
-      <c r="C113" s="13" t="e">
+      <c r="C113" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D113" s="14"/>
-      <c r="E113" s="31"/>
+      <c r="E113" s="34"/>
       <c r="F113" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2700,12 +2696,12 @@
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
       <c r="B114" s="21"/>
-      <c r="C114" s="13" t="e">
+      <c r="C114" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D114" s="14"/>
-      <c r="E114" s="31"/>
+      <c r="E114" s="34"/>
       <c r="F114" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2716,12 +2712,12 @@
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
       <c r="B115" s="21"/>
-      <c r="C115" s="13" t="e">
+      <c r="C115" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D115" s="14"/>
-      <c r="E115" s="31"/>
+      <c r="E115" s="34"/>
       <c r="F115" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2732,12 +2728,12 @@
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
       <c r="B116" s="21"/>
-      <c r="C116" s="13" t="e">
+      <c r="C116" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D116" s="14"/>
-      <c r="E116" s="31"/>
+      <c r="E116" s="34"/>
       <c r="F116" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2748,12 +2744,12 @@
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
       <c r="B117" s="21"/>
-      <c r="C117" s="13" t="e">
+      <c r="C117" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D117" s="14"/>
-      <c r="E117" s="31"/>
+      <c r="E117" s="34"/>
       <c r="F117" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2764,12 +2760,12 @@
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
       <c r="B118" s="21"/>
-      <c r="C118" s="13" t="e">
+      <c r="C118" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D118" s="14"/>
-      <c r="E118" s="31"/>
+      <c r="E118" s="34"/>
       <c r="F118" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2780,12 +2776,12 @@
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
       <c r="B119" s="21"/>
-      <c r="C119" s="13" t="e">
+      <c r="C119" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D119" s="14"/>
-      <c r="E119" s="31"/>
+      <c r="E119" s="34"/>
       <c r="F119" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2796,12 +2792,12 @@
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
       <c r="B120" s="21"/>
-      <c r="C120" s="13" t="e">
+      <c r="C120" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D120" s="14"/>
-      <c r="E120" s="31"/>
+      <c r="E120" s="34"/>
       <c r="F120" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2812,12 +2808,12 @@
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
       <c r="B121" s="21"/>
-      <c r="C121" s="13" t="e">
+      <c r="C121" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D121" s="14"/>
-      <c r="E121" s="31"/>
+      <c r="E121" s="34"/>
       <c r="F121" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2828,12 +2824,12 @@
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
       <c r="B122" s="21"/>
-      <c r="C122" s="13" t="e">
+      <c r="C122" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D122" s="14"/>
-      <c r="E122" s="31"/>
+      <c r="E122" s="34"/>
       <c r="F122" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2844,12 +2840,12 @@
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
       <c r="B123" s="21"/>
-      <c r="C123" s="13" t="e">
+      <c r="C123" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D123" s="14"/>
-      <c r="E123" s="31"/>
+      <c r="E123" s="34"/>
       <c r="F123" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2860,12 +2856,12 @@
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>
       <c r="B124" s="21"/>
-      <c r="C124" s="13" t="e">
+      <c r="C124" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D124" s="14"/>
-      <c r="E124" s="31"/>
+      <c r="E124" s="34"/>
       <c r="F124" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2876,12 +2872,12 @@
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
       <c r="B125" s="21"/>
-      <c r="C125" s="13" t="e">
+      <c r="C125" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D125" s="14"/>
-      <c r="E125" s="31"/>
+      <c r="E125" s="34"/>
       <c r="F125" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2892,12 +2888,12 @@
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
       <c r="B126" s="21"/>
-      <c r="C126" s="13" t="e">
+      <c r="C126" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D126" s="14"/>
-      <c r="E126" s="31"/>
+      <c r="E126" s="34"/>
       <c r="F126" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2908,12 +2904,12 @@
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="5"/>
       <c r="B127" s="21"/>
-      <c r="C127" s="13" t="e">
+      <c r="C127" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D127" s="14"/>
-      <c r="E127" s="31"/>
+      <c r="E127" s="34"/>
       <c r="F127" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2924,12 +2920,12 @@
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="5"/>
       <c r="B128" s="21"/>
-      <c r="C128" s="13" t="e">
+      <c r="C128" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D128" s="14"/>
-      <c r="E128" s="31"/>
+      <c r="E128" s="34"/>
       <c r="F128" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2940,12 +2936,12 @@
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
       <c r="B129" s="21"/>
-      <c r="C129" s="13" t="e">
+      <c r="C129" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D129" s="14"/>
-      <c r="E129" s="31"/>
+      <c r="E129" s="34"/>
       <c r="F129" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2956,12 +2952,12 @@
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
       <c r="B130" s="21"/>
-      <c r="C130" s="13" t="e">
+      <c r="C130" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D130" s="14"/>
-      <c r="E130" s="31"/>
+      <c r="E130" s="34"/>
       <c r="F130" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2972,12 +2968,12 @@
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
       <c r="B131" s="21"/>
-      <c r="C131" s="13" t="e">
+      <c r="C131" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D131" s="14"/>
-      <c r="E131" s="31"/>
+      <c r="E131" s="34"/>
       <c r="F131" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2988,12 +2984,12 @@
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="5"/>
       <c r="B132" s="21"/>
-      <c r="C132" s="13" t="e">
-        <f t="shared" ref="C132:C195" si="4">VLOOKUP(D132,Tabla_TIPBAU,2,)</f>
+      <c r="C132" s="19" t="e">
+        <f t="shared" ref="C132:C195" si="4">VLOOKUP(D132,Tabla_New_TIPBAU,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="D132" s="14"/>
-      <c r="E132" s="31"/>
+      <c r="E132" s="34"/>
       <c r="F132" s="13" t="e">
         <f t="shared" ref="F132:F195" si="5">VLOOKUP(G132,Tabla_TIPINI,2,)</f>
         <v>#N/A</v>
@@ -3004,12 +3000,12 @@
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="5"/>
       <c r="B133" s="21"/>
-      <c r="C133" s="13" t="e">
+      <c r="C133" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D133" s="14"/>
-      <c r="E133" s="31"/>
+      <c r="E133" s="34"/>
       <c r="F133" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3020,12 +3016,12 @@
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="5"/>
       <c r="B134" s="21"/>
-      <c r="C134" s="13" t="e">
+      <c r="C134" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D134" s="14"/>
-      <c r="E134" s="31"/>
+      <c r="E134" s="34"/>
       <c r="F134" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3036,12 +3032,12 @@
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="5"/>
       <c r="B135" s="21"/>
-      <c r="C135" s="13" t="e">
+      <c r="C135" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D135" s="14"/>
-      <c r="E135" s="31"/>
+      <c r="E135" s="34"/>
       <c r="F135" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3052,12 +3048,12 @@
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="5"/>
       <c r="B136" s="21"/>
-      <c r="C136" s="13" t="e">
+      <c r="C136" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D136" s="14"/>
-      <c r="E136" s="31"/>
+      <c r="E136" s="34"/>
       <c r="F136" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3068,12 +3064,12 @@
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="5"/>
       <c r="B137" s="21"/>
-      <c r="C137" s="13" t="e">
+      <c r="C137" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D137" s="14"/>
-      <c r="E137" s="31"/>
+      <c r="E137" s="34"/>
       <c r="F137" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3084,12 +3080,12 @@
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="5"/>
       <c r="B138" s="21"/>
-      <c r="C138" s="13" t="e">
+      <c r="C138" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D138" s="14"/>
-      <c r="E138" s="31"/>
+      <c r="E138" s="34"/>
       <c r="F138" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3100,12 +3096,12 @@
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="5"/>
       <c r="B139" s="21"/>
-      <c r="C139" s="13" t="e">
+      <c r="C139" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D139" s="14"/>
-      <c r="E139" s="31"/>
+      <c r="E139" s="34"/>
       <c r="F139" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3116,12 +3112,12 @@
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="5"/>
       <c r="B140" s="21"/>
-      <c r="C140" s="13" t="e">
+      <c r="C140" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D140" s="14"/>
-      <c r="E140" s="31"/>
+      <c r="E140" s="34"/>
       <c r="F140" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3132,12 +3128,12 @@
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="5"/>
       <c r="B141" s="21"/>
-      <c r="C141" s="13" t="e">
+      <c r="C141" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D141" s="14"/>
-      <c r="E141" s="31"/>
+      <c r="E141" s="34"/>
       <c r="F141" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3148,12 +3144,12 @@
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="5"/>
       <c r="B142" s="21"/>
-      <c r="C142" s="13" t="e">
+      <c r="C142" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D142" s="14"/>
-      <c r="E142" s="31"/>
+      <c r="E142" s="34"/>
       <c r="F142" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3164,12 +3160,12 @@
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="5"/>
       <c r="B143" s="21"/>
-      <c r="C143" s="13" t="e">
+      <c r="C143" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D143" s="14"/>
-      <c r="E143" s="31"/>
+      <c r="E143" s="34"/>
       <c r="F143" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3180,12 +3176,12 @@
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="5"/>
       <c r="B144" s="21"/>
-      <c r="C144" s="13" t="e">
+      <c r="C144" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D144" s="14"/>
-      <c r="E144" s="31"/>
+      <c r="E144" s="34"/>
       <c r="F144" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3196,12 +3192,12 @@
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="5"/>
       <c r="B145" s="21"/>
-      <c r="C145" s="13" t="e">
+      <c r="C145" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D145" s="14"/>
-      <c r="E145" s="31"/>
+      <c r="E145" s="34"/>
       <c r="F145" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3212,12 +3208,12 @@
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="5"/>
       <c r="B146" s="21"/>
-      <c r="C146" s="13" t="e">
+      <c r="C146" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D146" s="14"/>
-      <c r="E146" s="31"/>
+      <c r="E146" s="34"/>
       <c r="F146" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3228,12 +3224,12 @@
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="5"/>
       <c r="B147" s="21"/>
-      <c r="C147" s="13" t="e">
+      <c r="C147" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D147" s="14"/>
-      <c r="E147" s="31"/>
+      <c r="E147" s="34"/>
       <c r="F147" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3244,12 +3240,12 @@
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="5"/>
       <c r="B148" s="21"/>
-      <c r="C148" s="13" t="e">
+      <c r="C148" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D148" s="14"/>
-      <c r="E148" s="31"/>
+      <c r="E148" s="34"/>
       <c r="F148" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3260,12 +3256,12 @@
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="5"/>
       <c r="B149" s="21"/>
-      <c r="C149" s="13" t="e">
+      <c r="C149" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D149" s="14"/>
-      <c r="E149" s="31"/>
+      <c r="E149" s="34"/>
       <c r="F149" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3276,12 +3272,12 @@
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="5"/>
       <c r="B150" s="21"/>
-      <c r="C150" s="13" t="e">
+      <c r="C150" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D150" s="14"/>
-      <c r="E150" s="31"/>
+      <c r="E150" s="34"/>
       <c r="F150" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3292,12 +3288,12 @@
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="5"/>
       <c r="B151" s="21"/>
-      <c r="C151" s="13" t="e">
+      <c r="C151" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D151" s="14"/>
-      <c r="E151" s="31"/>
+      <c r="E151" s="34"/>
       <c r="F151" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3308,12 +3304,12 @@
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="5"/>
       <c r="B152" s="21"/>
-      <c r="C152" s="13" t="e">
+      <c r="C152" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D152" s="14"/>
-      <c r="E152" s="31"/>
+      <c r="E152" s="34"/>
       <c r="F152" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3324,12 +3320,12 @@
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="5"/>
       <c r="B153" s="21"/>
-      <c r="C153" s="13" t="e">
+      <c r="C153" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D153" s="14"/>
-      <c r="E153" s="31"/>
+      <c r="E153" s="34"/>
       <c r="F153" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3340,12 +3336,12 @@
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="5"/>
       <c r="B154" s="21"/>
-      <c r="C154" s="13" t="e">
+      <c r="C154" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D154" s="14"/>
-      <c r="E154" s="31"/>
+      <c r="E154" s="34"/>
       <c r="F154" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3356,12 +3352,12 @@
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="5"/>
       <c r="B155" s="21"/>
-      <c r="C155" s="13" t="e">
+      <c r="C155" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D155" s="14"/>
-      <c r="E155" s="31"/>
+      <c r="E155" s="34"/>
       <c r="F155" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3372,12 +3368,12 @@
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="5"/>
       <c r="B156" s="21"/>
-      <c r="C156" s="13" t="e">
+      <c r="C156" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D156" s="14"/>
-      <c r="E156" s="31"/>
+      <c r="E156" s="34"/>
       <c r="F156" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3388,12 +3384,12 @@
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="5"/>
       <c r="B157" s="21"/>
-      <c r="C157" s="13" t="e">
+      <c r="C157" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D157" s="14"/>
-      <c r="E157" s="31"/>
+      <c r="E157" s="34"/>
       <c r="F157" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3404,12 +3400,12 @@
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="5"/>
       <c r="B158" s="21"/>
-      <c r="C158" s="13" t="e">
+      <c r="C158" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D158" s="14"/>
-      <c r="E158" s="31"/>
+      <c r="E158" s="34"/>
       <c r="F158" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3420,12 +3416,12 @@
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="5"/>
       <c r="B159" s="21"/>
-      <c r="C159" s="13" t="e">
+      <c r="C159" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D159" s="14"/>
-      <c r="E159" s="31"/>
+      <c r="E159" s="34"/>
       <c r="F159" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3436,12 +3432,12 @@
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="5"/>
       <c r="B160" s="21"/>
-      <c r="C160" s="13" t="e">
+      <c r="C160" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D160" s="14"/>
-      <c r="E160" s="31"/>
+      <c r="E160" s="34"/>
       <c r="F160" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3452,12 +3448,12 @@
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="5"/>
       <c r="B161" s="21"/>
-      <c r="C161" s="13" t="e">
+      <c r="C161" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D161" s="14"/>
-      <c r="E161" s="31"/>
+      <c r="E161" s="34"/>
       <c r="F161" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3468,12 +3464,12 @@
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="5"/>
       <c r="B162" s="21"/>
-      <c r="C162" s="13" t="e">
+      <c r="C162" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D162" s="14"/>
-      <c r="E162" s="31"/>
+      <c r="E162" s="34"/>
       <c r="F162" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3484,12 +3480,12 @@
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="5"/>
       <c r="B163" s="21"/>
-      <c r="C163" s="13" t="e">
+      <c r="C163" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D163" s="14"/>
-      <c r="E163" s="31"/>
+      <c r="E163" s="34"/>
       <c r="F163" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3500,12 +3496,12 @@
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="5"/>
       <c r="B164" s="21"/>
-      <c r="C164" s="13" t="e">
+      <c r="C164" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D164" s="14"/>
-      <c r="E164" s="31"/>
+      <c r="E164" s="34"/>
       <c r="F164" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3516,12 +3512,12 @@
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="5"/>
       <c r="B165" s="21"/>
-      <c r="C165" s="13" t="e">
+      <c r="C165" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D165" s="14"/>
-      <c r="E165" s="31"/>
+      <c r="E165" s="34"/>
       <c r="F165" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3532,12 +3528,12 @@
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="5"/>
       <c r="B166" s="21"/>
-      <c r="C166" s="13" t="e">
+      <c r="C166" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D166" s="14"/>
-      <c r="E166" s="31"/>
+      <c r="E166" s="34"/>
       <c r="F166" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3548,12 +3544,12 @@
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="5"/>
       <c r="B167" s="21"/>
-      <c r="C167" s="13" t="e">
+      <c r="C167" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D167" s="14"/>
-      <c r="E167" s="31"/>
+      <c r="E167" s="34"/>
       <c r="F167" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3564,12 +3560,12 @@
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="5"/>
       <c r="B168" s="21"/>
-      <c r="C168" s="13" t="e">
+      <c r="C168" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D168" s="14"/>
-      <c r="E168" s="31"/>
+      <c r="E168" s="34"/>
       <c r="F168" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3580,12 +3576,12 @@
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="5"/>
       <c r="B169" s="21"/>
-      <c r="C169" s="13" t="e">
+      <c r="C169" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D169" s="14"/>
-      <c r="E169" s="31"/>
+      <c r="E169" s="34"/>
       <c r="F169" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3596,12 +3592,12 @@
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="5"/>
       <c r="B170" s="21"/>
-      <c r="C170" s="13" t="e">
+      <c r="C170" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D170" s="14"/>
-      <c r="E170" s="31"/>
+      <c r="E170" s="34"/>
       <c r="F170" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3612,12 +3608,12 @@
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="5"/>
       <c r="B171" s="21"/>
-      <c r="C171" s="13" t="e">
+      <c r="C171" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D171" s="14"/>
-      <c r="E171" s="31"/>
+      <c r="E171" s="34"/>
       <c r="F171" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3628,12 +3624,12 @@
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="5"/>
       <c r="B172" s="21"/>
-      <c r="C172" s="13" t="e">
+      <c r="C172" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D172" s="14"/>
-      <c r="E172" s="31"/>
+      <c r="E172" s="34"/>
       <c r="F172" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3644,12 +3640,12 @@
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="5"/>
       <c r="B173" s="21"/>
-      <c r="C173" s="13" t="e">
+      <c r="C173" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D173" s="14"/>
-      <c r="E173" s="31"/>
+      <c r="E173" s="34"/>
       <c r="F173" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3660,12 +3656,12 @@
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="5"/>
       <c r="B174" s="21"/>
-      <c r="C174" s="13" t="e">
+      <c r="C174" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D174" s="14"/>
-      <c r="E174" s="31"/>
+      <c r="E174" s="34"/>
       <c r="F174" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3676,12 +3672,12 @@
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="5"/>
       <c r="B175" s="21"/>
-      <c r="C175" s="13" t="e">
+      <c r="C175" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D175" s="14"/>
-      <c r="E175" s="31"/>
+      <c r="E175" s="34"/>
       <c r="F175" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3692,12 +3688,12 @@
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="5"/>
       <c r="B176" s="21"/>
-      <c r="C176" s="13" t="e">
+      <c r="C176" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D176" s="14"/>
-      <c r="E176" s="31"/>
+      <c r="E176" s="34"/>
       <c r="F176" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3708,12 +3704,12 @@
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="5"/>
       <c r="B177" s="21"/>
-      <c r="C177" s="13" t="e">
+      <c r="C177" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D177" s="14"/>
-      <c r="E177" s="31"/>
+      <c r="E177" s="34"/>
       <c r="F177" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3724,12 +3720,12 @@
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="5"/>
       <c r="B178" s="21"/>
-      <c r="C178" s="13" t="e">
+      <c r="C178" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D178" s="14"/>
-      <c r="E178" s="31"/>
+      <c r="E178" s="34"/>
       <c r="F178" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3740,12 +3736,12 @@
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="5"/>
       <c r="B179" s="21"/>
-      <c r="C179" s="13" t="e">
+      <c r="C179" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D179" s="14"/>
-      <c r="E179" s="31"/>
+      <c r="E179" s="34"/>
       <c r="F179" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3756,12 +3752,12 @@
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="5"/>
       <c r="B180" s="21"/>
-      <c r="C180" s="13" t="e">
+      <c r="C180" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D180" s="14"/>
-      <c r="E180" s="31"/>
+      <c r="E180" s="34"/>
       <c r="F180" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3772,12 +3768,12 @@
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="5"/>
       <c r="B181" s="21"/>
-      <c r="C181" s="13" t="e">
+      <c r="C181" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D181" s="14"/>
-      <c r="E181" s="31"/>
+      <c r="E181" s="34"/>
       <c r="F181" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3788,12 +3784,12 @@
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="5"/>
       <c r="B182" s="21"/>
-      <c r="C182" s="13" t="e">
+      <c r="C182" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D182" s="14"/>
-      <c r="E182" s="31"/>
+      <c r="E182" s="34"/>
       <c r="F182" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3804,12 +3800,12 @@
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="5"/>
       <c r="B183" s="21"/>
-      <c r="C183" s="13" t="e">
+      <c r="C183" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D183" s="14"/>
-      <c r="E183" s="31"/>
+      <c r="E183" s="34"/>
       <c r="F183" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3820,12 +3816,12 @@
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="5"/>
       <c r="B184" s="21"/>
-      <c r="C184" s="13" t="e">
+      <c r="C184" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D184" s="14"/>
-      <c r="E184" s="31"/>
+      <c r="E184" s="34"/>
       <c r="F184" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3836,12 +3832,12 @@
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="5"/>
       <c r="B185" s="21"/>
-      <c r="C185" s="13" t="e">
+      <c r="C185" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D185" s="14"/>
-      <c r="E185" s="31"/>
+      <c r="E185" s="34"/>
       <c r="F185" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3852,12 +3848,12 @@
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="5"/>
       <c r="B186" s="21"/>
-      <c r="C186" s="13" t="e">
+      <c r="C186" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D186" s="14"/>
-      <c r="E186" s="31"/>
+      <c r="E186" s="34"/>
       <c r="F186" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3868,12 +3864,12 @@
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="5"/>
       <c r="B187" s="21"/>
-      <c r="C187" s="13" t="e">
+      <c r="C187" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D187" s="14"/>
-      <c r="E187" s="31"/>
+      <c r="E187" s="34"/>
       <c r="F187" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3884,12 +3880,12 @@
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="5"/>
       <c r="B188" s="21"/>
-      <c r="C188" s="13" t="e">
+      <c r="C188" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D188" s="14"/>
-      <c r="E188" s="31"/>
+      <c r="E188" s="34"/>
       <c r="F188" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3900,12 +3896,12 @@
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="5"/>
       <c r="B189" s="21"/>
-      <c r="C189" s="13" t="e">
+      <c r="C189" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D189" s="14"/>
-      <c r="E189" s="31"/>
+      <c r="E189" s="34"/>
       <c r="F189" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3916,12 +3912,12 @@
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="5"/>
       <c r="B190" s="21"/>
-      <c r="C190" s="13" t="e">
+      <c r="C190" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D190" s="14"/>
-      <c r="E190" s="31"/>
+      <c r="E190" s="34"/>
       <c r="F190" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3932,12 +3928,12 @@
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="5"/>
       <c r="B191" s="21"/>
-      <c r="C191" s="13" t="e">
+      <c r="C191" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D191" s="14"/>
-      <c r="E191" s="31"/>
+      <c r="E191" s="34"/>
       <c r="F191" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3948,12 +3944,12 @@
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="5"/>
       <c r="B192" s="21"/>
-      <c r="C192" s="13" t="e">
+      <c r="C192" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D192" s="14"/>
-      <c r="E192" s="31"/>
+      <c r="E192" s="34"/>
       <c r="F192" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3964,12 +3960,12 @@
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="5"/>
       <c r="B193" s="21"/>
-      <c r="C193" s="13" t="e">
+      <c r="C193" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D193" s="14"/>
-      <c r="E193" s="31"/>
+      <c r="E193" s="34"/>
       <c r="F193" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3980,12 +3976,12 @@
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="5"/>
       <c r="B194" s="21"/>
-      <c r="C194" s="13" t="e">
+      <c r="C194" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D194" s="14"/>
-      <c r="E194" s="31"/>
+      <c r="E194" s="34"/>
       <c r="F194" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -3996,12 +3992,12 @@
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="5"/>
       <c r="B195" s="21"/>
-      <c r="C195" s="13" t="e">
+      <c r="C195" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D195" s="14"/>
-      <c r="E195" s="31"/>
+      <c r="E195" s="34"/>
       <c r="F195" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -4012,12 +4008,12 @@
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="5"/>
       <c r="B196" s="21"/>
-      <c r="C196" s="13" t="e">
-        <f t="shared" ref="C196:C259" si="6">VLOOKUP(D196,Tabla_TIPBAU,2,)</f>
+      <c r="C196" s="19" t="e">
+        <f t="shared" ref="C196:C259" si="6">VLOOKUP(D196,Tabla_New_TIPBAU,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="D196" s="14"/>
-      <c r="E196" s="31"/>
+      <c r="E196" s="34"/>
       <c r="F196" s="13" t="e">
         <f t="shared" ref="F196:F259" si="7">VLOOKUP(G196,Tabla_TIPINI,2,)</f>
         <v>#N/A</v>
@@ -4028,12 +4024,12 @@
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="5"/>
       <c r="B197" s="21"/>
-      <c r="C197" s="13" t="e">
+      <c r="C197" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D197" s="14"/>
-      <c r="E197" s="31"/>
+      <c r="E197" s="34"/>
       <c r="F197" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4044,12 +4040,12 @@
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="5"/>
       <c r="B198" s="21"/>
-      <c r="C198" s="13" t="e">
+      <c r="C198" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D198" s="14"/>
-      <c r="E198" s="31"/>
+      <c r="E198" s="34"/>
       <c r="F198" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4060,12 +4056,12 @@
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="5"/>
       <c r="B199" s="21"/>
-      <c r="C199" s="13" t="e">
+      <c r="C199" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D199" s="14"/>
-      <c r="E199" s="31"/>
+      <c r="E199" s="34"/>
       <c r="F199" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4076,12 +4072,12 @@
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="5"/>
       <c r="B200" s="21"/>
-      <c r="C200" s="13" t="e">
+      <c r="C200" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D200" s="14"/>
-      <c r="E200" s="31"/>
+      <c r="E200" s="34"/>
       <c r="F200" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4092,12 +4088,12 @@
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="5"/>
       <c r="B201" s="21"/>
-      <c r="C201" s="13" t="e">
+      <c r="C201" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D201" s="14"/>
-      <c r="E201" s="31"/>
+      <c r="E201" s="34"/>
       <c r="F201" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4108,12 +4104,12 @@
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="5"/>
       <c r="B202" s="21"/>
-      <c r="C202" s="13" t="e">
+      <c r="C202" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D202" s="14"/>
-      <c r="E202" s="31"/>
+      <c r="E202" s="34"/>
       <c r="F202" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4124,12 +4120,12 @@
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="5"/>
       <c r="B203" s="21"/>
-      <c r="C203" s="13" t="e">
+      <c r="C203" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D203" s="14"/>
-      <c r="E203" s="31"/>
+      <c r="E203" s="34"/>
       <c r="F203" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4140,12 +4136,12 @@
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="5"/>
       <c r="B204" s="21"/>
-      <c r="C204" s="13" t="e">
+      <c r="C204" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D204" s="14"/>
-      <c r="E204" s="31"/>
+      <c r="E204" s="34"/>
       <c r="F204" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4156,12 +4152,12 @@
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="5"/>
       <c r="B205" s="21"/>
-      <c r="C205" s="13" t="e">
+      <c r="C205" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D205" s="14"/>
-      <c r="E205" s="31"/>
+      <c r="E205" s="34"/>
       <c r="F205" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4172,12 +4168,12 @@
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="5"/>
       <c r="B206" s="21"/>
-      <c r="C206" s="13" t="e">
+      <c r="C206" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D206" s="14"/>
-      <c r="E206" s="31"/>
+      <c r="E206" s="34"/>
       <c r="F206" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4188,12 +4184,12 @@
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="5"/>
       <c r="B207" s="21"/>
-      <c r="C207" s="13" t="e">
+      <c r="C207" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D207" s="14"/>
-      <c r="E207" s="31"/>
+      <c r="E207" s="34"/>
       <c r="F207" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4204,12 +4200,12 @@
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="5"/>
       <c r="B208" s="21"/>
-      <c r="C208" s="13" t="e">
+      <c r="C208" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D208" s="14"/>
-      <c r="E208" s="31"/>
+      <c r="E208" s="34"/>
       <c r="F208" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4220,12 +4216,12 @@
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="5"/>
       <c r="B209" s="21"/>
-      <c r="C209" s="13" t="e">
+      <c r="C209" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D209" s="14"/>
-      <c r="E209" s="31"/>
+      <c r="E209" s="34"/>
       <c r="F209" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4236,12 +4232,12 @@
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="5"/>
       <c r="B210" s="21"/>
-      <c r="C210" s="13" t="e">
+      <c r="C210" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D210" s="14"/>
-      <c r="E210" s="31"/>
+      <c r="E210" s="34"/>
       <c r="F210" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4252,12 +4248,12 @@
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="5"/>
       <c r="B211" s="21"/>
-      <c r="C211" s="13" t="e">
+      <c r="C211" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D211" s="14"/>
-      <c r="E211" s="31"/>
+      <c r="E211" s="34"/>
       <c r="F211" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4268,12 +4264,12 @@
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="5"/>
       <c r="B212" s="21"/>
-      <c r="C212" s="13" t="e">
+      <c r="C212" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D212" s="14"/>
-      <c r="E212" s="31"/>
+      <c r="E212" s="34"/>
       <c r="F212" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4284,12 +4280,12 @@
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="5"/>
       <c r="B213" s="21"/>
-      <c r="C213" s="13" t="e">
+      <c r="C213" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D213" s="14"/>
-      <c r="E213" s="31"/>
+      <c r="E213" s="34"/>
       <c r="F213" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4300,12 +4296,12 @@
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="5"/>
       <c r="B214" s="21"/>
-      <c r="C214" s="13" t="e">
+      <c r="C214" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D214" s="14"/>
-      <c r="E214" s="31"/>
+      <c r="E214" s="34"/>
       <c r="F214" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4316,12 +4312,12 @@
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="5"/>
       <c r="B215" s="21"/>
-      <c r="C215" s="13" t="e">
+      <c r="C215" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D215" s="14"/>
-      <c r="E215" s="31"/>
+      <c r="E215" s="34"/>
       <c r="F215" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4332,12 +4328,12 @@
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="5"/>
       <c r="B216" s="21"/>
-      <c r="C216" s="13" t="e">
+      <c r="C216" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D216" s="14"/>
-      <c r="E216" s="31"/>
+      <c r="E216" s="34"/>
       <c r="F216" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4348,12 +4344,12 @@
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="5"/>
       <c r="B217" s="21"/>
-      <c r="C217" s="13" t="e">
+      <c r="C217" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D217" s="14"/>
-      <c r="E217" s="31"/>
+      <c r="E217" s="34"/>
       <c r="F217" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4364,12 +4360,12 @@
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="5"/>
       <c r="B218" s="21"/>
-      <c r="C218" s="13" t="e">
+      <c r="C218" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D218" s="14"/>
-      <c r="E218" s="31"/>
+      <c r="E218" s="34"/>
       <c r="F218" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4380,12 +4376,12 @@
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="5"/>
       <c r="B219" s="21"/>
-      <c r="C219" s="13" t="e">
+      <c r="C219" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D219" s="14"/>
-      <c r="E219" s="31"/>
+      <c r="E219" s="34"/>
       <c r="F219" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4396,12 +4392,12 @@
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="5"/>
       <c r="B220" s="21"/>
-      <c r="C220" s="13" t="e">
+      <c r="C220" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D220" s="14"/>
-      <c r="E220" s="31"/>
+      <c r="E220" s="34"/>
       <c r="F220" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4412,12 +4408,12 @@
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="5"/>
       <c r="B221" s="21"/>
-      <c r="C221" s="13" t="e">
+      <c r="C221" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D221" s="14"/>
-      <c r="E221" s="31"/>
+      <c r="E221" s="34"/>
       <c r="F221" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4428,12 +4424,12 @@
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="5"/>
       <c r="B222" s="21"/>
-      <c r="C222" s="13" t="e">
+      <c r="C222" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D222" s="14"/>
-      <c r="E222" s="31"/>
+      <c r="E222" s="34"/>
       <c r="F222" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4444,12 +4440,12 @@
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="5"/>
       <c r="B223" s="21"/>
-      <c r="C223" s="13" t="e">
+      <c r="C223" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D223" s="14"/>
-      <c r="E223" s="31"/>
+      <c r="E223" s="34"/>
       <c r="F223" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4460,12 +4456,12 @@
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="5"/>
       <c r="B224" s="21"/>
-      <c r="C224" s="13" t="e">
+      <c r="C224" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D224" s="14"/>
-      <c r="E224" s="31"/>
+      <c r="E224" s="34"/>
       <c r="F224" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4476,12 +4472,12 @@
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="5"/>
       <c r="B225" s="21"/>
-      <c r="C225" s="13" t="e">
+      <c r="C225" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D225" s="14"/>
-      <c r="E225" s="31"/>
+      <c r="E225" s="34"/>
       <c r="F225" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4492,12 +4488,12 @@
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="5"/>
       <c r="B226" s="21"/>
-      <c r="C226" s="13" t="e">
+      <c r="C226" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D226" s="14"/>
-      <c r="E226" s="31"/>
+      <c r="E226" s="34"/>
       <c r="F226" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4508,12 +4504,12 @@
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="5"/>
       <c r="B227" s="21"/>
-      <c r="C227" s="13" t="e">
+      <c r="C227" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D227" s="14"/>
-      <c r="E227" s="31"/>
+      <c r="E227" s="34"/>
       <c r="F227" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4524,12 +4520,12 @@
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="5"/>
       <c r="B228" s="21"/>
-      <c r="C228" s="13" t="e">
+      <c r="C228" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D228" s="14"/>
-      <c r="E228" s="31"/>
+      <c r="E228" s="34"/>
       <c r="F228" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4540,12 +4536,12 @@
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="5"/>
       <c r="B229" s="21"/>
-      <c r="C229" s="13" t="e">
+      <c r="C229" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D229" s="14"/>
-      <c r="E229" s="31"/>
+      <c r="E229" s="34"/>
       <c r="F229" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4556,12 +4552,12 @@
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="5"/>
       <c r="B230" s="21"/>
-      <c r="C230" s="13" t="e">
+      <c r="C230" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D230" s="14"/>
-      <c r="E230" s="31"/>
+      <c r="E230" s="34"/>
       <c r="F230" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4572,12 +4568,12 @@
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="5"/>
       <c r="B231" s="21"/>
-      <c r="C231" s="13" t="e">
+      <c r="C231" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D231" s="14"/>
-      <c r="E231" s="31"/>
+      <c r="E231" s="34"/>
       <c r="F231" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4588,12 +4584,12 @@
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="5"/>
       <c r="B232" s="21"/>
-      <c r="C232" s="13" t="e">
+      <c r="C232" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D232" s="14"/>
-      <c r="E232" s="31"/>
+      <c r="E232" s="34"/>
       <c r="F232" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4604,12 +4600,12 @@
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="5"/>
       <c r="B233" s="21"/>
-      <c r="C233" s="13" t="e">
+      <c r="C233" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D233" s="14"/>
-      <c r="E233" s="31"/>
+      <c r="E233" s="34"/>
       <c r="F233" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4620,12 +4616,12 @@
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="5"/>
       <c r="B234" s="21"/>
-      <c r="C234" s="13" t="e">
+      <c r="C234" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D234" s="14"/>
-      <c r="E234" s="31"/>
+      <c r="E234" s="34"/>
       <c r="F234" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4636,12 +4632,12 @@
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="5"/>
       <c r="B235" s="21"/>
-      <c r="C235" s="13" t="e">
+      <c r="C235" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D235" s="14"/>
-      <c r="E235" s="31"/>
+      <c r="E235" s="34"/>
       <c r="F235" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4652,12 +4648,12 @@
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="5"/>
       <c r="B236" s="21"/>
-      <c r="C236" s="13" t="e">
+      <c r="C236" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D236" s="14"/>
-      <c r="E236" s="31"/>
+      <c r="E236" s="34"/>
       <c r="F236" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4668,12 +4664,12 @@
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="5"/>
       <c r="B237" s="21"/>
-      <c r="C237" s="13" t="e">
+      <c r="C237" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D237" s="14"/>
-      <c r="E237" s="31"/>
+      <c r="E237" s="34"/>
       <c r="F237" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4684,12 +4680,12 @@
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="5"/>
       <c r="B238" s="21"/>
-      <c r="C238" s="13" t="e">
+      <c r="C238" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D238" s="14"/>
-      <c r="E238" s="31"/>
+      <c r="E238" s="34"/>
       <c r="F238" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4700,12 +4696,12 @@
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="5"/>
       <c r="B239" s="21"/>
-      <c r="C239" s="13" t="e">
+      <c r="C239" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D239" s="14"/>
-      <c r="E239" s="31"/>
+      <c r="E239" s="34"/>
       <c r="F239" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4716,12 +4712,12 @@
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="5"/>
       <c r="B240" s="21"/>
-      <c r="C240" s="13" t="e">
+      <c r="C240" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D240" s="14"/>
-      <c r="E240" s="31"/>
+      <c r="E240" s="34"/>
       <c r="F240" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4732,12 +4728,12 @@
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="5"/>
       <c r="B241" s="21"/>
-      <c r="C241" s="13" t="e">
+      <c r="C241" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D241" s="14"/>
-      <c r="E241" s="31"/>
+      <c r="E241" s="34"/>
       <c r="F241" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4748,12 +4744,12 @@
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="5"/>
       <c r="B242" s="21"/>
-      <c r="C242" s="13" t="e">
+      <c r="C242" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D242" s="14"/>
-      <c r="E242" s="31"/>
+      <c r="E242" s="34"/>
       <c r="F242" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4764,12 +4760,12 @@
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="5"/>
       <c r="B243" s="21"/>
-      <c r="C243" s="13" t="e">
+      <c r="C243" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D243" s="14"/>
-      <c r="E243" s="31"/>
+      <c r="E243" s="34"/>
       <c r="F243" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4780,12 +4776,12 @@
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="5"/>
       <c r="B244" s="21"/>
-      <c r="C244" s="13" t="e">
+      <c r="C244" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D244" s="14"/>
-      <c r="E244" s="31"/>
+      <c r="E244" s="34"/>
       <c r="F244" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4796,12 +4792,12 @@
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="5"/>
       <c r="B245" s="21"/>
-      <c r="C245" s="13" t="e">
+      <c r="C245" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D245" s="14"/>
-      <c r="E245" s="31"/>
+      <c r="E245" s="34"/>
       <c r="F245" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4812,12 +4808,12 @@
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="5"/>
       <c r="B246" s="21"/>
-      <c r="C246" s="13" t="e">
+      <c r="C246" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D246" s="14"/>
-      <c r="E246" s="31"/>
+      <c r="E246" s="34"/>
       <c r="F246" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4828,12 +4824,12 @@
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="5"/>
       <c r="B247" s="21"/>
-      <c r="C247" s="13" t="e">
+      <c r="C247" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D247" s="14"/>
-      <c r="E247" s="31"/>
+      <c r="E247" s="34"/>
       <c r="F247" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4844,12 +4840,12 @@
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="5"/>
       <c r="B248" s="21"/>
-      <c r="C248" s="13" t="e">
+      <c r="C248" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D248" s="14"/>
-      <c r="E248" s="31"/>
+      <c r="E248" s="34"/>
       <c r="F248" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4860,12 +4856,12 @@
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="5"/>
       <c r="B249" s="21"/>
-      <c r="C249" s="13" t="e">
+      <c r="C249" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D249" s="14"/>
-      <c r="E249" s="31"/>
+      <c r="E249" s="34"/>
       <c r="F249" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4876,12 +4872,12 @@
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="5"/>
       <c r="B250" s="21"/>
-      <c r="C250" s="13" t="e">
+      <c r="C250" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D250" s="14"/>
-      <c r="E250" s="31"/>
+      <c r="E250" s="34"/>
       <c r="F250" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4892,12 +4888,12 @@
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="5"/>
       <c r="B251" s="21"/>
-      <c r="C251" s="13" t="e">
+      <c r="C251" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D251" s="14"/>
-      <c r="E251" s="31"/>
+      <c r="E251" s="34"/>
       <c r="F251" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4908,12 +4904,12 @@
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="5"/>
       <c r="B252" s="21"/>
-      <c r="C252" s="13" t="e">
+      <c r="C252" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D252" s="14"/>
-      <c r="E252" s="31"/>
+      <c r="E252" s="34"/>
       <c r="F252" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4924,12 +4920,12 @@
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="5"/>
       <c r="B253" s="21"/>
-      <c r="C253" s="13" t="e">
+      <c r="C253" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D253" s="14"/>
-      <c r="E253" s="31"/>
+      <c r="E253" s="34"/>
       <c r="F253" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4940,12 +4936,12 @@
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="5"/>
       <c r="B254" s="21"/>
-      <c r="C254" s="13" t="e">
+      <c r="C254" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D254" s="14"/>
-      <c r="E254" s="31"/>
+      <c r="E254" s="34"/>
       <c r="F254" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4956,12 +4952,12 @@
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="5"/>
       <c r="B255" s="21"/>
-      <c r="C255" s="13" t="e">
+      <c r="C255" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D255" s="14"/>
-      <c r="E255" s="31"/>
+      <c r="E255" s="34"/>
       <c r="F255" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4972,12 +4968,12 @@
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="5"/>
       <c r="B256" s="21"/>
-      <c r="C256" s="13" t="e">
+      <c r="C256" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D256" s="14"/>
-      <c r="E256" s="31"/>
+      <c r="E256" s="34"/>
       <c r="F256" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -4988,12 +4984,12 @@
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="5"/>
       <c r="B257" s="21"/>
-      <c r="C257" s="13" t="e">
+      <c r="C257" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D257" s="14"/>
-      <c r="E257" s="31"/>
+      <c r="E257" s="34"/>
       <c r="F257" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -5004,12 +5000,12 @@
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="5"/>
       <c r="B258" s="21"/>
-      <c r="C258" s="13" t="e">
+      <c r="C258" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D258" s="14"/>
-      <c r="E258" s="31"/>
+      <c r="E258" s="34"/>
       <c r="F258" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -5020,12 +5016,12 @@
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="5"/>
       <c r="B259" s="21"/>
-      <c r="C259" s="13" t="e">
+      <c r="C259" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D259" s="14"/>
-      <c r="E259" s="31"/>
+      <c r="E259" s="34"/>
       <c r="F259" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -5036,12 +5032,12 @@
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="5"/>
       <c r="B260" s="21"/>
-      <c r="C260" s="13" t="e">
-        <f t="shared" ref="C260:C312" si="8">VLOOKUP(D260,Tabla_TIPBAU,2,)</f>
+      <c r="C260" s="19" t="e">
+        <f t="shared" ref="C260:C312" si="8">VLOOKUP(D260,Tabla_New_TIPBAU,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="D260" s="14"/>
-      <c r="E260" s="31"/>
+      <c r="E260" s="34"/>
       <c r="F260" s="13" t="e">
         <f t="shared" ref="F260:F312" si="9">VLOOKUP(G260,Tabla_TIPINI,2,)</f>
         <v>#N/A</v>
@@ -5052,12 +5048,12 @@
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="5"/>
       <c r="B261" s="21"/>
-      <c r="C261" s="13" t="e">
+      <c r="C261" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D261" s="14"/>
-      <c r="E261" s="31"/>
+      <c r="E261" s="34"/>
       <c r="F261" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5068,12 +5064,12 @@
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="5"/>
       <c r="B262" s="21"/>
-      <c r="C262" s="13" t="e">
+      <c r="C262" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D262" s="14"/>
-      <c r="E262" s="31"/>
+      <c r="E262" s="34"/>
       <c r="F262" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5084,12 +5080,12 @@
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="5"/>
       <c r="B263" s="21"/>
-      <c r="C263" s="13" t="e">
+      <c r="C263" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D263" s="14"/>
-      <c r="E263" s="31"/>
+      <c r="E263" s="34"/>
       <c r="F263" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5100,12 +5096,12 @@
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="5"/>
       <c r="B264" s="21"/>
-      <c r="C264" s="13" t="e">
+      <c r="C264" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D264" s="14"/>
-      <c r="E264" s="31"/>
+      <c r="E264" s="34"/>
       <c r="F264" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5116,12 +5112,12 @@
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="5"/>
       <c r="B265" s="21"/>
-      <c r="C265" s="13" t="e">
+      <c r="C265" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D265" s="14"/>
-      <c r="E265" s="31"/>
+      <c r="E265" s="34"/>
       <c r="F265" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5132,12 +5128,12 @@
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="5"/>
       <c r="B266" s="21"/>
-      <c r="C266" s="13" t="e">
+      <c r="C266" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D266" s="14"/>
-      <c r="E266" s="31"/>
+      <c r="E266" s="34"/>
       <c r="F266" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5148,12 +5144,12 @@
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="5"/>
       <c r="B267" s="21"/>
-      <c r="C267" s="13" t="e">
+      <c r="C267" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D267" s="14"/>
-      <c r="E267" s="31"/>
+      <c r="E267" s="34"/>
       <c r="F267" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5164,12 +5160,12 @@
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="5"/>
       <c r="B268" s="21"/>
-      <c r="C268" s="13" t="e">
+      <c r="C268" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D268" s="14"/>
-      <c r="E268" s="31"/>
+      <c r="E268" s="34"/>
       <c r="F268" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5180,12 +5176,12 @@
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="5"/>
       <c r="B269" s="21"/>
-      <c r="C269" s="13" t="e">
+      <c r="C269" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D269" s="14"/>
-      <c r="E269" s="31"/>
+      <c r="E269" s="34"/>
       <c r="F269" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5196,12 +5192,12 @@
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="5"/>
       <c r="B270" s="21"/>
-      <c r="C270" s="13" t="e">
+      <c r="C270" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D270" s="14"/>
-      <c r="E270" s="31"/>
+      <c r="E270" s="34"/>
       <c r="F270" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5212,12 +5208,12 @@
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="5"/>
       <c r="B271" s="21"/>
-      <c r="C271" s="13" t="e">
+      <c r="C271" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D271" s="14"/>
-      <c r="E271" s="31"/>
+      <c r="E271" s="34"/>
       <c r="F271" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5228,12 +5224,12 @@
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="5"/>
       <c r="B272" s="21"/>
-      <c r="C272" s="13" t="e">
+      <c r="C272" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D272" s="14"/>
-      <c r="E272" s="31"/>
+      <c r="E272" s="34"/>
       <c r="F272" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5244,12 +5240,12 @@
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="5"/>
       <c r="B273" s="21"/>
-      <c r="C273" s="13" t="e">
+      <c r="C273" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D273" s="14"/>
-      <c r="E273" s="31"/>
+      <c r="E273" s="34"/>
       <c r="F273" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5260,12 +5256,12 @@
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="5"/>
       <c r="B274" s="21"/>
-      <c r="C274" s="13" t="e">
+      <c r="C274" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D274" s="14"/>
-      <c r="E274" s="31"/>
+      <c r="E274" s="34"/>
       <c r="F274" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5276,12 +5272,12 @@
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="5"/>
       <c r="B275" s="21"/>
-      <c r="C275" s="13" t="e">
+      <c r="C275" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D275" s="14"/>
-      <c r="E275" s="31"/>
+      <c r="E275" s="34"/>
       <c r="F275" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5292,12 +5288,12 @@
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="5"/>
       <c r="B276" s="21"/>
-      <c r="C276" s="13" t="e">
+      <c r="C276" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D276" s="14"/>
-      <c r="E276" s="31"/>
+      <c r="E276" s="34"/>
       <c r="F276" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5308,12 +5304,12 @@
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="5"/>
       <c r="B277" s="21"/>
-      <c r="C277" s="13" t="e">
+      <c r="C277" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D277" s="14"/>
-      <c r="E277" s="31"/>
+      <c r="E277" s="34"/>
       <c r="F277" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5324,12 +5320,12 @@
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="5"/>
       <c r="B278" s="21"/>
-      <c r="C278" s="13" t="e">
+      <c r="C278" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D278" s="14"/>
-      <c r="E278" s="31"/>
+      <c r="E278" s="34"/>
       <c r="F278" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5340,12 +5336,12 @@
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="5"/>
       <c r="B279" s="21"/>
-      <c r="C279" s="13" t="e">
+      <c r="C279" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D279" s="14"/>
-      <c r="E279" s="31"/>
+      <c r="E279" s="34"/>
       <c r="F279" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5356,12 +5352,12 @@
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="5"/>
       <c r="B280" s="21"/>
-      <c r="C280" s="13" t="e">
+      <c r="C280" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D280" s="14"/>
-      <c r="E280" s="31"/>
+      <c r="E280" s="34"/>
       <c r="F280" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5372,12 +5368,12 @@
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="5"/>
       <c r="B281" s="21"/>
-      <c r="C281" s="13" t="e">
+      <c r="C281" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D281" s="14"/>
-      <c r="E281" s="31"/>
+      <c r="E281" s="34"/>
       <c r="F281" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5388,12 +5384,12 @@
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="5"/>
       <c r="B282" s="21"/>
-      <c r="C282" s="13" t="e">
+      <c r="C282" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D282" s="14"/>
-      <c r="E282" s="31"/>
+      <c r="E282" s="34"/>
       <c r="F282" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5404,12 +5400,12 @@
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="5"/>
       <c r="B283" s="21"/>
-      <c r="C283" s="13" t="e">
+      <c r="C283" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D283" s="14"/>
-      <c r="E283" s="31"/>
+      <c r="E283" s="34"/>
       <c r="F283" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5420,12 +5416,12 @@
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="5"/>
       <c r="B284" s="21"/>
-      <c r="C284" s="13" t="e">
+      <c r="C284" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D284" s="14"/>
-      <c r="E284" s="31"/>
+      <c r="E284" s="34"/>
       <c r="F284" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5436,12 +5432,12 @@
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="5"/>
       <c r="B285" s="21"/>
-      <c r="C285" s="13" t="e">
+      <c r="C285" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D285" s="14"/>
-      <c r="E285" s="31"/>
+      <c r="E285" s="34"/>
       <c r="F285" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5452,12 +5448,12 @@
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="5"/>
       <c r="B286" s="21"/>
-      <c r="C286" s="13" t="e">
+      <c r="C286" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D286" s="14"/>
-      <c r="E286" s="31"/>
+      <c r="E286" s="34"/>
       <c r="F286" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5468,12 +5464,12 @@
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="5"/>
       <c r="B287" s="21"/>
-      <c r="C287" s="13" t="e">
+      <c r="C287" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D287" s="14"/>
-      <c r="E287" s="31"/>
+      <c r="E287" s="34"/>
       <c r="F287" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5484,12 +5480,12 @@
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="5"/>
       <c r="B288" s="21"/>
-      <c r="C288" s="13" t="e">
+      <c r="C288" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D288" s="14"/>
-      <c r="E288" s="31"/>
+      <c r="E288" s="34"/>
       <c r="F288" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5500,12 +5496,12 @@
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="5"/>
       <c r="B289" s="21"/>
-      <c r="C289" s="13" t="e">
+      <c r="C289" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D289" s="14"/>
-      <c r="E289" s="31"/>
+      <c r="E289" s="34"/>
       <c r="F289" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5516,12 +5512,12 @@
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="5"/>
       <c r="B290" s="21"/>
-      <c r="C290" s="13" t="e">
+      <c r="C290" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D290" s="14"/>
-      <c r="E290" s="31"/>
+      <c r="E290" s="34"/>
       <c r="F290" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5532,12 +5528,12 @@
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="5"/>
       <c r="B291" s="21"/>
-      <c r="C291" s="13" t="e">
+      <c r="C291" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D291" s="14"/>
-      <c r="E291" s="31"/>
+      <c r="E291" s="34"/>
       <c r="F291" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5548,12 +5544,12 @@
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="5"/>
       <c r="B292" s="21"/>
-      <c r="C292" s="13" t="e">
+      <c r="C292" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D292" s="14"/>
-      <c r="E292" s="31"/>
+      <c r="E292" s="34"/>
       <c r="F292" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5564,12 +5560,12 @@
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="5"/>
       <c r="B293" s="21"/>
-      <c r="C293" s="13" t="e">
+      <c r="C293" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D293" s="14"/>
-      <c r="E293" s="31"/>
+      <c r="E293" s="34"/>
       <c r="F293" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5580,12 +5576,12 @@
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="5"/>
       <c r="B294" s="21"/>
-      <c r="C294" s="13" t="e">
+      <c r="C294" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D294" s="14"/>
-      <c r="E294" s="31"/>
+      <c r="E294" s="34"/>
       <c r="F294" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5596,12 +5592,12 @@
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="5"/>
       <c r="B295" s="21"/>
-      <c r="C295" s="13" t="e">
+      <c r="C295" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D295" s="14"/>
-      <c r="E295" s="31"/>
+      <c r="E295" s="34"/>
       <c r="F295" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5612,12 +5608,12 @@
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="5"/>
       <c r="B296" s="21"/>
-      <c r="C296" s="13" t="e">
+      <c r="C296" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D296" s="14"/>
-      <c r="E296" s="31"/>
+      <c r="E296" s="34"/>
       <c r="F296" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5628,12 +5624,12 @@
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="5"/>
       <c r="B297" s="21"/>
-      <c r="C297" s="13" t="e">
+      <c r="C297" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D297" s="14"/>
-      <c r="E297" s="31"/>
+      <c r="E297" s="34"/>
       <c r="F297" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5644,12 +5640,12 @@
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="5"/>
       <c r="B298" s="21"/>
-      <c r="C298" s="13" t="e">
+      <c r="C298" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D298" s="14"/>
-      <c r="E298" s="31"/>
+      <c r="E298" s="34"/>
       <c r="F298" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5660,12 +5656,12 @@
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="5"/>
       <c r="B299" s="21"/>
-      <c r="C299" s="13" t="e">
+      <c r="C299" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D299" s="14"/>
-      <c r="E299" s="31"/>
+      <c r="E299" s="34"/>
       <c r="F299" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5676,12 +5672,12 @@
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="5"/>
       <c r="B300" s="21"/>
-      <c r="C300" s="13" t="e">
+      <c r="C300" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D300" s="14"/>
-      <c r="E300" s="31"/>
+      <c r="E300" s="34"/>
       <c r="F300" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5692,12 +5688,12 @@
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="5"/>
       <c r="B301" s="21"/>
-      <c r="C301" s="13" t="e">
+      <c r="C301" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D301" s="14"/>
-      <c r="E301" s="31"/>
+      <c r="E301" s="34"/>
       <c r="F301" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5708,12 +5704,12 @@
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="5"/>
       <c r="B302" s="21"/>
-      <c r="C302" s="13" t="e">
+      <c r="C302" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D302" s="14"/>
-      <c r="E302" s="31"/>
+      <c r="E302" s="34"/>
       <c r="F302" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5724,12 +5720,12 @@
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="5"/>
       <c r="B303" s="21"/>
-      <c r="C303" s="13" t="e">
+      <c r="C303" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D303" s="14"/>
-      <c r="E303" s="31"/>
+      <c r="E303" s="34"/>
       <c r="F303" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5740,12 +5736,12 @@
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="5"/>
       <c r="B304" s="21"/>
-      <c r="C304" s="13" t="e">
+      <c r="C304" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D304" s="14"/>
-      <c r="E304" s="31"/>
+      <c r="E304" s="34"/>
       <c r="F304" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5756,12 +5752,12 @@
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="5"/>
       <c r="B305" s="21"/>
-      <c r="C305" s="13" t="e">
+      <c r="C305" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D305" s="14"/>
-      <c r="E305" s="31"/>
+      <c r="E305" s="34"/>
       <c r="F305" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5772,12 +5768,12 @@
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="5"/>
       <c r="B306" s="21"/>
-      <c r="C306" s="13" t="e">
+      <c r="C306" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D306" s="14"/>
-      <c r="E306" s="31"/>
+      <c r="E306" s="34"/>
       <c r="F306" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5788,12 +5784,12 @@
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="5"/>
       <c r="B307" s="21"/>
-      <c r="C307" s="13" t="e">
+      <c r="C307" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D307" s="14"/>
-      <c r="E307" s="31"/>
+      <c r="E307" s="34"/>
       <c r="F307" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5804,12 +5800,12 @@
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="5"/>
       <c r="B308" s="21"/>
-      <c r="C308" s="13" t="e">
+      <c r="C308" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D308" s="14"/>
-      <c r="E308" s="31"/>
+      <c r="E308" s="34"/>
       <c r="F308" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5820,12 +5816,12 @@
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="5"/>
       <c r="B309" s="21"/>
-      <c r="C309" s="13" t="e">
+      <c r="C309" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D309" s="14"/>
-      <c r="E309" s="31"/>
+      <c r="E309" s="34"/>
       <c r="F309" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5836,12 +5832,12 @@
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="5"/>
       <c r="B310" s="21"/>
-      <c r="C310" s="13" t="e">
+      <c r="C310" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D310" s="14"/>
-      <c r="E310" s="31"/>
+      <c r="E310" s="34"/>
       <c r="F310" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5852,12 +5848,12 @@
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="5"/>
       <c r="B311" s="21"/>
-      <c r="C311" s="13" t="e">
+      <c r="C311" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D311" s="14"/>
-      <c r="E311" s="31"/>
+      <c r="E311" s="34"/>
       <c r="F311" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5868,7 +5864,7 @@
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="5"/>
       <c r="B312" s="20"/>
-      <c r="C312" s="13" t="e">
+      <c r="C312" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
@@ -5882,11 +5878,11 @@
       <c r="H312" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/4QBx4nj3Xsxx3QiKsDeNbYVGkvPYTvNFqKEOZkyEnDXehOnzFuxAVthPPJqYYIISQJKM8Ec+uifsTSZcwmlkw==" saltValue="W+7aBfkXwKUHaZpWZI2siQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="B4uLBLFjf1/M5vfy0jjafgVwaQydUZJdfaAMSVOgUEHlHFtBzGX4TIZ7fKPy4cXMbwMlLmVqsHZsiA13+aGwbg==" saltValue="7gLPCO5YaNj2MUIz600wlA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A2:H2"/>
   </mergeCells>
-  <dataValidations count="8">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A312" xr:uid="{53EDBA05-EEC0-434C-BA38-74D539B08692}">
       <formula1>Lista_Anno</formula1>
     </dataValidation>
@@ -5894,10 +5890,7 @@
       <formula1>0</formula1>
       <formula2>999999999</formula2>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C4:C312 F4:F312" xr:uid="{26E374A7-38C3-4BE4-B8C7-32554CAB14CC}"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D312" xr:uid="{BB785608-9A8A-44DE-8B9B-D1761CCF5704}">
-      <formula1>Lista_TIPBAU</formula1>
-    </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="F4:F312 C4:C312" xr:uid="{26E374A7-38C3-4BE4-B8C7-32554CAB14CC}"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G312" xr:uid="{C2B20C9A-7C1B-477F-88D2-4A234E18C2AC}">
       <formula1>Lista_TIPINI</formula1>
     </dataValidation>
@@ -5905,15 +5898,20 @@
       <formula1>0</formula1>
       <formula2>99999999999999.9</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D311" xr:uid="{FAD0833D-671A-483B-B694-8B26E36DEFFF}">
-      <formula1>Lista_TIPBAU</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G311" xr:uid="{195FAF35-7256-407B-82D3-0B07C49426B8}">
       <formula1>Lista_TIPINI</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D312" xr:uid="{A9C9C972-AC9B-4F5F-BF17-70C016C95865}">
+      <formula1>Lista_New_TIPBAU</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C4" unlockedFormula="1"/>
+    <ignoredError sqref="C6" evalError="1"/>
+    <ignoredError sqref="C5" evalError="1" unlockedFormula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -5921,8 +5919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD69A1D-962E-4523-9077-5823B1DE1A11}">
   <dimension ref="A3:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:J6"/>
+    <sheetView topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6031,6 +6029,12 @@
       <c r="D9" s="2">
         <v>4</v>
       </c>
+      <c r="F9" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="32">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
